--- a/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -3019,126 +3019,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3150,6 +3034,10 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3213,6 +3101,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3220,12 +3112,222 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3259,6 +3361,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3287,76 +3457,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3379,186 +3481,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3574,74 +3545,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3664,12 +3622,126 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3700,109 +3772,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="69" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3819,6 +3819,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3845,22 +3861,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8050,39 +8050,39 @@
   <sheetData>
     <row r="1" spans="2:18" s="24" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" ht="13.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="207"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="P2" s="169" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="179"/>
+      <c r="P2" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
     </row>
     <row r="3" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
       <c r="P3" s="27" t="s">
         <v>25</v>
       </c>
@@ -8094,19 +8094,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="210"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="212"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
       <c r="P4" s="27">
         <v>0</v>
       </c>
@@ -8118,19 +8118,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="212"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182"/>
       <c r="P5" s="27">
         <v>7</v>
       </c>
@@ -8142,19 +8142,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="210"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="212"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="182"/>
       <c r="P6" s="27">
         <v>19</v>
       </c>
@@ -8166,19 +8166,19 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="210"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="182"/>
       <c r="P7" s="27">
         <v>31</v>
       </c>
@@ -8190,19 +8190,19 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="182"/>
       <c r="P8" s="27">
         <v>43</v>
       </c>
@@ -8214,19 +8214,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="213"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="215"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="185"/>
       <c r="P9" s="27">
         <v>50</v>
       </c>
@@ -8239,19 +8239,19 @@
     </row>
     <row r="10" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="29"/>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="30"/>
       <c r="P10" s="27">
         <v>51.5</v>
@@ -8265,17 +8265,17 @@
     </row>
     <row r="11" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="31"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="202"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="171"/>
       <c r="N11" s="32"/>
       <c r="P11" s="27">
         <v>53</v>
@@ -8290,21 +8290,21 @@
     <row r="12" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="193" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="223"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="219" t="s">
+      <c r="G12" s="189" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="222"/>
+      <c r="H12" s="192"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="219" t="s">
+      <c r="J12" s="189" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="14"/>
       <c r="N12" s="32"/>
       <c r="P12" s="27">
@@ -8320,21 +8320,21 @@
     <row r="13" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="173" t="s">
+      <c r="D13" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="174"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="173" t="s">
+      <c r="G13" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="173"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="173" t="s">
+      <c r="J13" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
       <c r="M13" s="14"/>
       <c r="N13" s="32"/>
       <c r="P13" s="27">
@@ -8350,15 +8350,15 @@
     <row r="14" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="192"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="219" t="s">
+      <c r="G14" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="222"/>
+      <c r="H14" s="192"/>
       <c r="I14" s="5"/>
       <c r="J14" s="167" t="s">
         <v>160</v>
@@ -8382,21 +8382,21 @@
     <row r="15" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="185"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="185"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="186"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="170"/>
       <c r="M15" s="14"/>
       <c r="N15" s="32"/>
       <c r="P15" s="27">
@@ -8412,21 +8412,21 @@
     <row r="16" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="187" t="s">
+      <c r="D16" s="193" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="188"/>
+      <c r="E16" s="200"/>
       <c r="F16" s="4"/>
       <c r="G16" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="175" t="s">
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="217"/>
       <c r="M16" s="14"/>
       <c r="N16" s="32"/>
       <c r="P16" s="27">
@@ -8442,21 +8442,21 @@
     <row r="17" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="173" t="s">
+      <c r="D17" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="197"/>
+      <c r="E17" s="209"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="173" t="s">
+      <c r="J17" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
       <c r="M17" s="14"/>
       <c r="N17" s="32"/>
       <c r="P17" s="27">
@@ -8472,12 +8472,12 @@
     <row r="18" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8496,16 +8496,16 @@
     <row r="19" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="196"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="194" t="s">
+      <c r="G19" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
       <c r="J19" s="43" t="str">
         <f>IF(J23="","Prelim","ERROR")</f>
         <v>Prelim</v>
@@ -8533,16 +8533,16 @@
     <row r="20" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="203">
+      <c r="D20" s="172">
         <v>40575</v>
       </c>
-      <c r="E20" s="204"/>
+      <c r="E20" s="173"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="198" t="s">
+      <c r="G20" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="36">
         <v>0.33</v>
       </c>
@@ -8567,16 +8567,16 @@
     <row r="21" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="174"/>
+      <c r="E21" s="214"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
       <c r="J21" s="36">
         <v>0.33</v>
       </c>
@@ -8601,16 +8601,16 @@
     <row r="22" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="180">
+      <c r="D22" s="220">
         <v>40603</v>
       </c>
-      <c r="E22" s="181"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="205" t="s">
+      <c r="G22" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="38">
         <v>0.34</v>
       </c>
@@ -8635,14 +8635,14 @@
     <row r="23" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="31"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="174"/>
+      <c r="E23" s="214"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
       <c r="J23" s="10" t="str">
         <f>IF((SUM(J20:J22))=1,"",(SUM(J20:J22))-1)</f>
         <v/>
@@ -8670,16 +8670,16 @@
     <row r="24" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="180">
+      <c r="D24" s="220">
         <v>40634</v>
       </c>
-      <c r="E24" s="184"/>
+      <c r="E24" s="224"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="194" t="s">
+      <c r="G24" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
       <c r="J24" s="44" t="s">
         <v>8</v>
       </c>
@@ -8704,16 +8704,16 @@
     <row r="25" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="173" t="s">
+      <c r="D25" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="214"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="189" t="s">
+      <c r="G25" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
       <c r="J25" s="40">
         <v>0.5</v>
       </c>
@@ -8736,14 +8736,14 @@
     <row r="26" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="186"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="170"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="191" t="s">
+      <c r="G26" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="192"/>
-      <c r="I26" s="193"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="205"/>
       <c r="J26" s="41">
         <v>0.25</v>
       </c>
@@ -8767,15 +8767,15 @@
     </row>
     <row r="27" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="31"/>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -11117,30 +11117,6 @@
   </sheetData>
   <sheetProtection password="D04D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B2:N9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="C27:E27"/>
@@ -11157,6 +11133,30 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B2:N9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12125,8 +12125,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12155,273 +12155,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="str">
+      <c r="A1" s="253" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D12,"  ",'INITIAL INPUT'!G12)</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="233" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="233" t="s">
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="233" t="s">
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="235"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="261"/>
       <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="278" t="str">
+      <c r="A2" s="256"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="250" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="271" t="str">
+      <c r="F2" s="228" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="275" t="str">
+      <c r="I2" s="247" t="str">
         <f>IF('INITIAL INPUT'!J23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J2" s="278" t="str">
+      <c r="J2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="K2" s="271" t="str">
+      <c r="K2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="L2" s="266" t="str">
+      <c r="L2" s="231" t="str">
         <f>G2</f>
         <v>EXAM</v>
       </c>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="246" t="s">
+      <c r="N2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="275" t="str">
+      <c r="O2" s="247" t="str">
         <f>IF('INITIAL INPUT'!K23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P2" s="278" t="str">
+      <c r="P2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q2" s="271" t="str">
+      <c r="Q2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="266" t="s">
+      <c r="R2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="267" t="s">
+      <c r="S2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="246" t="s">
+      <c r="T2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="275" t="str">
+      <c r="U2" s="247" t="str">
         <f>IF('INITIAL INPUT'!L23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V2" s="281" t="str">
+      <c r="V2" s="267" t="str">
         <f>IF(U2="INVALID GRADE","INVALID FINAL GRADE","FINAL GRADE (%)")</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W2" s="293" t="s">
+      <c r="W2" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="str">
+      <c r="A3" s="279" t="str">
         <f>'INITIAL INPUT'!J12</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="274"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="294"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="226"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239" t="str">
+      <c r="A4" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D14,"  ",'INITIAL INPUT'!G14)</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="241"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
       <c r="D4" s="103" t="str">
         <f>'INITIAL INPUT'!J14</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="279"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="294"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="246"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="246"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="226"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239" t="str">
+      <c r="A5" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester ","SY ",'INITIAL INPUT'!D16)</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="284">
+      <c r="B5" s="283"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="237">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="H5" s="274"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="284">
+      <c r="H5" s="246"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="237">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="M5" s="267"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="279"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="284">
+      <c r="M5" s="264"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="237">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="S5" s="267"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="276"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="294"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="248"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="226"/>
     </row>
     <row r="6" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="252" t="str">
+      <c r="A6" s="270" t="str">
         <f>CONCATENATE("Inst/Prof:", 'INITIAL INPUT'!J16)</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="272"/>
-      <c r="S6" s="267"/>
-      <c r="T6" s="274"/>
-      <c r="U6" s="276"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="294"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="248"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="226"/>
     </row>
     <row r="7" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="259" t="s">
+      <c r="B7" s="274"/>
+      <c r="C7" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="280"/>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="276"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="273"/>
-      <c r="S7" s="268"/>
-      <c r="T7" s="274"/>
-      <c r="U7" s="276"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="294"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="248"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="226"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="257"/>
-      <c r="B8" s="258"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="226"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="76">
         <f>'INITIAL INPUT'!J20</f>
         <v>0.33</v>
@@ -12434,8 +12434,8 @@
         <f>'INITIAL INPUT'!J22</f>
         <v>0.34</v>
       </c>
-      <c r="H8" s="248"/>
-      <c r="I8" s="277"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="249"/>
       <c r="J8" s="76">
         <f>'INITIAL INPUT'!K20</f>
         <v>0.33</v>
@@ -12448,9 +12448,9 @@
         <f>'INITIAL INPUT'!K22</f>
         <v>0.34</v>
       </c>
-      <c r="M8" s="269"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="277"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="249"/>
       <c r="P8" s="76">
         <f>'INITIAL INPUT'!L20</f>
         <v>0.33</v>
@@ -12463,11 +12463,11 @@
         <f>'INITIAL INPUT'!L22</f>
         <v>0.34</v>
       </c>
-      <c r="S8" s="269"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="277"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="295"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="227"/>
     </row>
     <row r="9" spans="1:24" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -14156,8 +14156,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="286" t="s">
+      <c r="X26" s="233"/>
+      <c r="Y26" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14253,8 +14253,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="287"/>
+      <c r="X27" s="234"/>
+      <c r="Y27" s="236"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14348,8 +14348,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="287"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="236"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
@@ -14443,8 +14443,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="287"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="236"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -14538,8 +14538,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="287"/>
+      <c r="X30" s="234"/>
+      <c r="Y30" s="236"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
@@ -14633,8 +14633,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="287"/>
+      <c r="X31" s="234"/>
+      <c r="Y31" s="236"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
@@ -14728,8 +14728,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="287"/>
+      <c r="X32" s="234"/>
+      <c r="Y32" s="236"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
@@ -14823,8 +14823,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="287"/>
+      <c r="X33" s="234"/>
+      <c r="Y33" s="236"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
@@ -14918,8 +14918,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X34" s="297"/>
-      <c r="Y34" s="287"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="236"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
@@ -15013,8 +15013,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X35" s="297"/>
-      <c r="Y35" s="287"/>
+      <c r="X35" s="234"/>
+      <c r="Y35" s="236"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
@@ -15108,8 +15108,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X36" s="297"/>
-      <c r="Y36" s="287"/>
+      <c r="X36" s="234"/>
+      <c r="Y36" s="236"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
@@ -15203,8 +15203,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X37" s="297"/>
-      <c r="Y37" s="287"/>
+      <c r="X37" s="234"/>
+      <c r="Y37" s="236"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -15298,8 +15298,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X38" s="297"/>
-      <c r="Y38" s="287"/>
+      <c r="X38" s="234"/>
+      <c r="Y38" s="236"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
@@ -15393,8 +15393,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X39" s="297"/>
-      <c r="Y39" s="287"/>
+      <c r="X39" s="234"/>
+      <c r="Y39" s="236"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -15488,8 +15488,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X40" s="297"/>
-      <c r="Y40" s="287"/>
+      <c r="X40" s="234"/>
+      <c r="Y40" s="236"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -15504,301 +15504,301 @@
       <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="227" t="str">
+      <c r="A42" s="253" t="str">
         <f>A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="233" t="s">
+      <c r="B42" s="254"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="233" t="s">
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="234"/>
-      <c r="L42" s="234"/>
-      <c r="M42" s="234"/>
-      <c r="N42" s="234"/>
-      <c r="O42" s="235"/>
-      <c r="P42" s="233" t="s">
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="261"/>
+      <c r="P42" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q42" s="234"/>
-      <c r="R42" s="234"/>
-      <c r="S42" s="234"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="270"/>
+      <c r="Q42" s="260"/>
+      <c r="R42" s="260"/>
+      <c r="S42" s="260"/>
+      <c r="T42" s="260"/>
+      <c r="U42" s="260"/>
+      <c r="V42" s="286"/>
       <c r="W42" s="72"/>
       <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="230"/>
-      <c r="B43" s="231"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="261" t="str">
+      <c r="A43" s="256"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="264" t="str">
+      <c r="F43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G43" s="266" t="s">
+      <c r="G43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="246" t="str">
+      <c r="H43" s="238" t="str">
         <f>H2</f>
         <v>SCORE</v>
       </c>
-      <c r="I43" s="249" t="str">
+      <c r="I43" s="294" t="str">
         <f>I2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J43" s="261" t="str">
+      <c r="J43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="K43" s="264" t="str">
+      <c r="K43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="L43" s="266" t="s">
+      <c r="L43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="267" t="str">
+      <c r="M43" s="264" t="str">
         <f>M2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="N43" s="246" t="str">
+      <c r="N43" s="238" t="str">
         <f>N2</f>
         <v>SCORE</v>
       </c>
-      <c r="O43" s="249" t="str">
+      <c r="O43" s="294" t="str">
         <f>O2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P43" s="261" t="str">
+      <c r="P43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q43" s="264" t="str">
+      <c r="Q43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="266" t="s">
+      <c r="R43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="267" t="str">
+      <c r="S43" s="264" t="str">
         <f>S2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="T43" s="246" t="str">
+      <c r="T43" s="238" t="str">
         <f>T2</f>
         <v>SCORE</v>
       </c>
-      <c r="U43" s="288" t="str">
+      <c r="U43" s="241" t="str">
         <f>U2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V43" s="291" t="str">
+      <c r="V43" s="244" t="str">
         <f>V2</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W43" s="293" t="s">
+      <c r="W43" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="236" t="str">
+      <c r="A44" s="279" t="str">
         <f>A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B44" s="237"/>
-      <c r="C44" s="237"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="262"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="262"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="267"/>
-      <c r="N44" s="247"/>
-      <c r="O44" s="250"/>
-      <c r="P44" s="262"/>
-      <c r="Q44" s="265"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="267"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="289"/>
-      <c r="V44" s="291"/>
-      <c r="W44" s="294"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="280"/>
+      <c r="D44" s="281"/>
+      <c r="E44" s="288"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="295"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="291"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="264"/>
+      <c r="N44" s="239"/>
+      <c r="O44" s="295"/>
+      <c r="P44" s="288"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="232"/>
+      <c r="S44" s="264"/>
+      <c r="T44" s="239"/>
+      <c r="U44" s="242"/>
+      <c r="V44" s="244"/>
+      <c r="W44" s="226"/>
     </row>
     <row r="45" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="239" t="str">
+      <c r="A45" s="282" t="str">
         <f>A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="284"/>
       <c r="D45" s="75" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="262"/>
-      <c r="K45" s="265"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="267"/>
-      <c r="N45" s="247"/>
-      <c r="O45" s="250"/>
-      <c r="P45" s="262"/>
-      <c r="Q45" s="265"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="267"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="291"/>
-      <c r="W45" s="294"/>
+      <c r="E45" s="288"/>
+      <c r="F45" s="291"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="288"/>
+      <c r="K45" s="291"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="264"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="295"/>
+      <c r="P45" s="288"/>
+      <c r="Q45" s="291"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="264"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="242"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="226"/>
     </row>
     <row r="46" spans="1:25" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="239" t="str">
+      <c r="A46" s="282" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="243">
+      <c r="B46" s="283"/>
+      <c r="C46" s="284"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="288"/>
+      <c r="F46" s="291"/>
+      <c r="G46" s="293">
         <f>G5</f>
         <v>40575</v>
       </c>
-      <c r="H46" s="247"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="265"/>
-      <c r="L46" s="243">
+      <c r="H46" s="239"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="291"/>
+      <c r="L46" s="293">
         <f>L5</f>
         <v>40603</v>
       </c>
-      <c r="M46" s="267"/>
-      <c r="N46" s="247"/>
-      <c r="O46" s="250"/>
-      <c r="P46" s="262"/>
-      <c r="Q46" s="265"/>
-      <c r="R46" s="243">
+      <c r="M46" s="264"/>
+      <c r="N46" s="239"/>
+      <c r="O46" s="295"/>
+      <c r="P46" s="288"/>
+      <c r="Q46" s="291"/>
+      <c r="R46" s="293">
         <f>R5</f>
         <v>40634</v>
       </c>
-      <c r="S46" s="267"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="291"/>
-      <c r="W46" s="294"/>
+      <c r="S46" s="264"/>
+      <c r="T46" s="239"/>
+      <c r="U46" s="242"/>
+      <c r="V46" s="244"/>
+      <c r="W46" s="226"/>
     </row>
     <row r="47" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="252" t="str">
+      <c r="A47" s="270" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="253"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="262"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="247"/>
-      <c r="I47" s="250"/>
-      <c r="J47" s="262"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="267"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="250"/>
-      <c r="P47" s="262"/>
-      <c r="Q47" s="265"/>
-      <c r="R47" s="244"/>
-      <c r="S47" s="267"/>
-      <c r="T47" s="247"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="291"/>
-      <c r="W47" s="294"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="288"/>
+      <c r="F47" s="291"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="288"/>
+      <c r="K47" s="291"/>
+      <c r="L47" s="232"/>
+      <c r="M47" s="264"/>
+      <c r="N47" s="239"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="288"/>
+      <c r="Q47" s="291"/>
+      <c r="R47" s="232"/>
+      <c r="S47" s="264"/>
+      <c r="T47" s="239"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="244"/>
+      <c r="W47" s="226"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="255" t="str">
+      <c r="A48" s="273" t="str">
         <f>A7</f>
         <v>CLASS LIST</v>
       </c>
-      <c r="B48" s="256"/>
-      <c r="C48" s="259" t="str">
+      <c r="B48" s="274"/>
+      <c r="C48" s="277" t="str">
         <f>C7</f>
         <v>SEX</v>
       </c>
-      <c r="D48" s="225" t="str">
+      <c r="D48" s="262" t="str">
         <f>D7</f>
         <v>Course</v>
       </c>
-      <c r="E48" s="262"/>
-      <c r="F48" s="265"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="250"/>
-      <c r="J48" s="262"/>
-      <c r="K48" s="265"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="268"/>
-      <c r="N48" s="247"/>
-      <c r="O48" s="250"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="265"/>
-      <c r="R48" s="244"/>
-      <c r="S48" s="268"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="289"/>
-      <c r="V48" s="291"/>
-      <c r="W48" s="294"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="291"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="295"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="265"/>
+      <c r="N48" s="239"/>
+      <c r="O48" s="295"/>
+      <c r="P48" s="288"/>
+      <c r="Q48" s="291"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="265"/>
+      <c r="T48" s="239"/>
+      <c r="U48" s="242"/>
+      <c r="V48" s="244"/>
+      <c r="W48" s="226"/>
       <c r="X48" s="91"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="257"/>
-      <c r="B49" s="258"/>
-      <c r="C49" s="260"/>
-      <c r="D49" s="226"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="269"/>
-      <c r="N49" s="248"/>
-      <c r="O49" s="251"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="245"/>
-      <c r="R49" s="245"/>
-      <c r="S49" s="269"/>
-      <c r="T49" s="248"/>
-      <c r="U49" s="290"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="295"/>
+      <c r="A49" s="275"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="289"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="292"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="296"/>
+      <c r="J49" s="289"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="266"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="296"/>
+      <c r="P49" s="289"/>
+      <c r="Q49" s="292"/>
+      <c r="R49" s="292"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="240"/>
+      <c r="U49" s="243"/>
+      <c r="V49" s="245"/>
+      <c r="W49" s="227"/>
       <c r="X49" s="91"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -17397,8 +17397,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="286" t="s">
+      <c r="X66" s="233"/>
+      <c r="Y66" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17494,8 +17494,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="287"/>
+      <c r="X67" s="234"/>
+      <c r="Y67" s="236"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
@@ -17589,8 +17589,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X68" s="297"/>
-      <c r="Y68" s="287"/>
+      <c r="X68" s="234"/>
+      <c r="Y68" s="236"/>
     </row>
     <row r="69" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -17684,8 +17684,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X69" s="297"/>
-      <c r="Y69" s="287"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="236"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
@@ -17779,8 +17779,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X70" s="297"/>
-      <c r="Y70" s="287"/>
+      <c r="X70" s="234"/>
+      <c r="Y70" s="236"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
@@ -17874,8 +17874,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X71" s="297"/>
-      <c r="Y71" s="287"/>
+      <c r="X71" s="234"/>
+      <c r="Y71" s="236"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
@@ -17969,8 +17969,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X72" s="297"/>
-      <c r="Y72" s="287"/>
+      <c r="X72" s="234"/>
+      <c r="Y72" s="236"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
@@ -18064,8 +18064,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X73" s="297"/>
-      <c r="Y73" s="287"/>
+      <c r="X73" s="234"/>
+      <c r="Y73" s="236"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
@@ -18159,8 +18159,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X74" s="297"/>
-      <c r="Y74" s="287"/>
+      <c r="X74" s="234"/>
+      <c r="Y74" s="236"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
@@ -18254,8 +18254,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X75" s="297"/>
-      <c r="Y75" s="287"/>
+      <c r="X75" s="234"/>
+      <c r="Y75" s="236"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
@@ -18349,8 +18349,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X76" s="297"/>
-      <c r="Y76" s="287"/>
+      <c r="X76" s="234"/>
+      <c r="Y76" s="236"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -18444,8 +18444,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X77" s="297"/>
-      <c r="Y77" s="287"/>
+      <c r="X77" s="234"/>
+      <c r="Y77" s="236"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
@@ -18539,8 +18539,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X78" s="297"/>
-      <c r="Y78" s="287"/>
+      <c r="X78" s="234"/>
+      <c r="Y78" s="236"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -18634,8 +18634,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X79" s="297"/>
-      <c r="Y79" s="287"/>
+      <c r="X79" s="234"/>
+      <c r="Y79" s="236"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
@@ -18729,8 +18729,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X80" s="297"/>
-      <c r="Y80" s="287"/>
+      <c r="X80" s="234"/>
+      <c r="Y80" s="236"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
@@ -19420,23 +19420,43 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2E3Q8WEFdjxloU03lKdfoTfFNevSEi4w4kRAAFLmLZBlPJPvR9jNl5/+XN/MDnESBW2fUaxEwTzg6XJj6vHA==" saltValue="O98nYpKCTff7QIvFUliSrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
-    <mergeCell ref="W2:W8"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="X26:X40"/>
-    <mergeCell ref="Y26:Y40"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="Y66:Y80"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="X66:X80"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="N43:N49"/>
+    <mergeCell ref="O43:O49"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="O2:O8"/>
     <mergeCell ref="P2:P7"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:I1"/>
@@ -19453,43 +19473,23 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="O43:O49"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="Y66:Y80"/>
+    <mergeCell ref="T43:T49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="X66:X80"/>
+    <mergeCell ref="W2:W8"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X26:X40"/>
+    <mergeCell ref="Y26:Y40"/>
+    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="U9:U40 U50:U80">
     <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="between">
@@ -19573,7 +19573,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -19594,43 +19594,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="331"/>
       <c r="AG1" s="63"/>
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
@@ -19638,48 +19638,48 @@
       <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
-      <c r="AE2" s="361" t="s">
+      <c r="AD2" s="353"/>
+      <c r="AE2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="363" t="s">
+      <c r="AF2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="62"/>
@@ -19689,89 +19689,89 @@
       <c r="AK2" s="62"/>
     </row>
     <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
-      <c r="AE3" s="361"/>
-      <c r="AF3" s="363"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
+      <c r="AE3" s="347"/>
+      <c r="AF3" s="298"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
@@ -19779,48 +19779,48 @@
       <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD4" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="361"/>
-      <c r="AF4" s="363"/>
+      <c r="AE4" s="347"/>
+      <c r="AF4" s="298"/>
       <c r="AG4" s="62"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
@@ -19828,13 +19828,13 @@
       <c r="AK4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108">
         <v>40</v>
       </c>
@@ -19853,8 +19853,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108">
         <v>20</v>
       </c>
@@ -19877,14 +19877,14 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110">
         <v>100</v>
       </c>
-      <c r="AD5" s="322"/>
-      <c r="AE5" s="361"/>
-      <c r="AF5" s="363"/>
+      <c r="AD5" s="349"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="298"/>
       <c r="AG5" s="62"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
@@ -19892,70 +19892,70 @@
       <c r="AK5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313" t="s">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="313" t="s">
+      <c r="F6" s="305" t="s">
         <v>245</v>
       </c>
-      <c r="G6" s="313" t="s">
+      <c r="G6" s="305" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="313" t="s">
+      <c r="H6" s="305" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331">
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v>120</v>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313" t="s">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="R6" s="313" t="s">
+      <c r="R6" s="305" t="s">
         <v>249</v>
       </c>
-      <c r="S6" s="313" t="s">
+      <c r="S6" s="305" t="s">
         <v>250</v>
       </c>
-      <c r="T6" s="313" t="s">
+      <c r="T6" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="U6" s="313" t="s">
+      <c r="U6" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="V6" s="313" t="s">
+      <c r="V6" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358">
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>120</v>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="AD6" s="323"/>
-      <c r="AE6" s="361"/>
-      <c r="AF6" s="363"/>
+      <c r="AD6" s="350"/>
+      <c r="AE6" s="347"/>
+      <c r="AF6" s="298"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
@@ -19963,44 +19963,44 @@
       <c r="AK6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="363"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
+      <c r="AE7" s="347"/>
+      <c r="AF7" s="298"/>
       <c r="AG7" s="55"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
@@ -20008,38 +20008,38 @@
       <c r="AK7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
-      <c r="AE8" s="362"/>
-      <c r="AF8" s="364"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
+      <c r="AE8" s="348"/>
+      <c r="AF8" s="299"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
@@ -21631,8 +21631,8 @@
         <f>CRS!I26</f>
         <v>91</v>
       </c>
-      <c r="AG26" s="300"/>
-      <c r="AH26" s="298" t="s">
+      <c r="AG26" s="373"/>
+      <c r="AH26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21723,8 +21723,8 @@
         <f>CRS!I27</f>
         <v>88</v>
       </c>
-      <c r="AG27" s="301"/>
-      <c r="AH27" s="299"/>
+      <c r="AG27" s="374"/>
+      <c r="AH27" s="372"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -21811,8 +21811,8 @@
         <f>CRS!I28</f>
         <v>83</v>
       </c>
-      <c r="AG28" s="301"/>
-      <c r="AH28" s="299"/>
+      <c r="AG28" s="374"/>
+      <c r="AH28" s="372"/>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -21899,8 +21899,8 @@
         <f>CRS!I29</f>
         <v>86</v>
       </c>
-      <c r="AG29" s="301"/>
-      <c r="AH29" s="299"/>
+      <c r="AG29" s="374"/>
+      <c r="AH29" s="372"/>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -21989,8 +21989,8 @@
         <f>CRS!I30</f>
         <v>87</v>
       </c>
-      <c r="AG30" s="301"/>
-      <c r="AH30" s="299"/>
+      <c r="AG30" s="374"/>
+      <c r="AH30" s="372"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -22079,8 +22079,8 @@
         <f>CRS!I31</f>
         <v>92</v>
       </c>
-      <c r="AG31" s="301"/>
-      <c r="AH31" s="299"/>
+      <c r="AG31" s="374"/>
+      <c r="AH31" s="372"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -22169,8 +22169,8 @@
         <f>CRS!I32</f>
         <v>94</v>
       </c>
-      <c r="AG32" s="301"/>
-      <c r="AH32" s="299"/>
+      <c r="AG32" s="374"/>
+      <c r="AH32" s="372"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -22259,8 +22259,8 @@
         <f>CRS!I33</f>
         <v>93</v>
       </c>
-      <c r="AG33" s="301"/>
-      <c r="AH33" s="299"/>
+      <c r="AG33" s="374"/>
+      <c r="AH33" s="372"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -22348,8 +22348,8 @@
         <f>CRS!I34</f>
         <v>78</v>
       </c>
-      <c r="AG34" s="301"/>
-      <c r="AH34" s="299"/>
+      <c r="AG34" s="374"/>
+      <c r="AH34" s="372"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
@@ -22441,8 +22441,8 @@
         <f>CRS!I35</f>
         <v>89</v>
       </c>
-      <c r="AG35" s="301"/>
-      <c r="AH35" s="299"/>
+      <c r="AG35" s="374"/>
+      <c r="AH35" s="372"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
@@ -22534,8 +22534,8 @@
         <f>CRS!I36</f>
         <v>95</v>
       </c>
-      <c r="AG36" s="301"/>
-      <c r="AH36" s="299"/>
+      <c r="AG36" s="374"/>
+      <c r="AH36" s="372"/>
       <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
@@ -22625,8 +22625,8 @@
         <f>CRS!I37</f>
         <v>85</v>
       </c>
-      <c r="AG37" s="301"/>
-      <c r="AH37" s="299"/>
+      <c r="AG37" s="374"/>
+      <c r="AH37" s="372"/>
       <c r="AI37" s="55"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
@@ -22718,8 +22718,8 @@
         <f>CRS!I38</f>
         <v>86</v>
       </c>
-      <c r="AG38" s="301"/>
-      <c r="AH38" s="299"/>
+      <c r="AG38" s="374"/>
+      <c r="AH38" s="372"/>
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
@@ -22811,8 +22811,8 @@
         <f>CRS!I39</f>
         <v>93</v>
       </c>
-      <c r="AG39" s="301"/>
-      <c r="AH39" s="299"/>
+      <c r="AG39" s="374"/>
+      <c r="AH39" s="372"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
@@ -22900,8 +22900,8 @@
         <f>CRS!I40</f>
         <v>85</v>
       </c>
-      <c r="AG40" s="301"/>
-      <c r="AH40" s="299"/>
+      <c r="AG40" s="374"/>
+      <c r="AH40" s="372"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
@@ -22946,43 +22946,43 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="331"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -22990,48 +22990,48 @@
       <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
-      <c r="AE43" s="361" t="s">
+      <c r="AD43" s="353"/>
+      <c r="AE43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="363" t="s">
+      <c r="AF43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG43" s="62"/>
@@ -23041,89 +23041,89 @@
       <c r="AK43" s="62"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
-      <c r="AE44" s="361"/>
-      <c r="AF44" s="363"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
+      <c r="AE44" s="347"/>
+      <c r="AF44" s="298"/>
       <c r="AG44" s="62"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
@@ -23131,48 +23131,48 @@
       <c r="AK44" s="62"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD45" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="361"/>
-      <c r="AF45" s="363"/>
+      <c r="AE45" s="347"/>
+      <c r="AF45" s="298"/>
       <c r="AG45" s="62"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
@@ -23180,13 +23180,13 @@
       <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
         <v>40</v>
@@ -23227,8 +23227,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>20</v>
@@ -23269,15 +23269,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>100</v>
       </c>
-      <c r="AD46" s="322"/>
-      <c r="AE46" s="361"/>
-      <c r="AF46" s="363"/>
+      <c r="AD46" s="349"/>
+      <c r="AE46" s="347"/>
+      <c r="AF46" s="298"/>
       <c r="AG46" s="62"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
@@ -23285,110 +23285,110 @@
       <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v>sw</v>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
         <v>1/17/2017</v>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="7"/>
         <v>1/25/2017</v>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="7"/>
         <v>2-22017</v>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="304">
+      <c r="O47" s="369">
         <f>O6</f>
         <v>120</v>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
         <v>CB</v>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lesson 01</v>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lesson 02</v>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lesson 03</v>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lesson 04</v>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lesson 05</v>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="304">
+      <c r="AA47" s="369">
         <f>AA6</f>
         <v>120</v>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40575</v>
       </c>
-      <c r="AD47" s="323"/>
-      <c r="AE47" s="361"/>
-      <c r="AF47" s="363"/>
+      <c r="AD47" s="350"/>
+      <c r="AE47" s="347"/>
+      <c r="AF47" s="298"/>
       <c r="AG47" s="62"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
@@ -23396,44 +23396,44 @@
       <c r="AK47" s="62"/>
     </row>
     <row r="48" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
-      <c r="AE48" s="361"/>
-      <c r="AF48" s="363"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
+      <c r="AE48" s="347"/>
+      <c r="AF48" s="298"/>
       <c r="AG48" s="55"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -23441,38 +23441,38 @@
       <c r="AK48" s="55"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
-      <c r="AE49" s="362"/>
-      <c r="AF49" s="364"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
+      <c r="AE49" s="348"/>
+      <c r="AF49" s="299"/>
     </row>
     <row r="50" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -24725,8 +24725,8 @@
         <f>CRS!I66</f>
         <v/>
       </c>
-      <c r="AG66" s="300"/>
-      <c r="AH66" s="298" t="s">
+      <c r="AG66" s="373"/>
+      <c r="AH66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24795,8 +24795,8 @@
         <f>CRS!I67</f>
         <v/>
       </c>
-      <c r="AG67" s="301"/>
-      <c r="AH67" s="299"/>
+      <c r="AG67" s="374"/>
+      <c r="AH67" s="372"/>
     </row>
     <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -24863,8 +24863,8 @@
         <f>CRS!I68</f>
         <v/>
       </c>
-      <c r="AG68" s="301"/>
-      <c r="AH68" s="299"/>
+      <c r="AG68" s="374"/>
+      <c r="AH68" s="372"/>
     </row>
     <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -24931,8 +24931,8 @@
         <f>CRS!I69</f>
         <v/>
       </c>
-      <c r="AG69" s="301"/>
-      <c r="AH69" s="299"/>
+      <c r="AG69" s="374"/>
+      <c r="AH69" s="372"/>
     </row>
     <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -24999,8 +24999,8 @@
         <f>CRS!I70</f>
         <v/>
       </c>
-      <c r="AG70" s="301"/>
-      <c r="AH70" s="299"/>
+      <c r="AG70" s="374"/>
+      <c r="AH70" s="372"/>
     </row>
     <row r="71" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -25067,8 +25067,8 @@
         <f>CRS!I71</f>
         <v/>
       </c>
-      <c r="AG71" s="301"/>
-      <c r="AH71" s="299"/>
+      <c r="AG71" s="374"/>
+      <c r="AH71" s="372"/>
     </row>
     <row r="72" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -25135,8 +25135,8 @@
         <f>CRS!I72</f>
         <v/>
       </c>
-      <c r="AG72" s="301"/>
-      <c r="AH72" s="299"/>
+      <c r="AG72" s="374"/>
+      <c r="AH72" s="372"/>
     </row>
     <row r="73" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -25203,8 +25203,8 @@
         <f>CRS!I73</f>
         <v/>
       </c>
-      <c r="AG73" s="301"/>
-      <c r="AH73" s="299"/>
+      <c r="AG73" s="374"/>
+      <c r="AH73" s="372"/>
     </row>
     <row r="74" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -25271,8 +25271,8 @@
         <f>CRS!I74</f>
         <v/>
       </c>
-      <c r="AG74" s="301"/>
-      <c r="AH74" s="299"/>
+      <c r="AG74" s="374"/>
+      <c r="AH74" s="372"/>
     </row>
     <row r="75" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -25339,8 +25339,8 @@
         <f>CRS!I75</f>
         <v/>
       </c>
-      <c r="AG75" s="301"/>
-      <c r="AH75" s="299"/>
+      <c r="AG75" s="374"/>
+      <c r="AH75" s="372"/>
     </row>
     <row r="76" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -25407,8 +25407,8 @@
         <f>CRS!I76</f>
         <v/>
       </c>
-      <c r="AG76" s="301"/>
-      <c r="AH76" s="299"/>
+      <c r="AG76" s="374"/>
+      <c r="AH76" s="372"/>
     </row>
     <row r="77" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -25475,8 +25475,8 @@
         <f>CRS!I77</f>
         <v/>
       </c>
-      <c r="AG77" s="301"/>
-      <c r="AH77" s="299"/>
+      <c r="AG77" s="374"/>
+      <c r="AH77" s="372"/>
     </row>
     <row r="78" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -25543,8 +25543,8 @@
         <f>CRS!I78</f>
         <v/>
       </c>
-      <c r="AG78" s="301"/>
-      <c r="AH78" s="299"/>
+      <c r="AG78" s="374"/>
+      <c r="AH78" s="372"/>
     </row>
     <row r="79" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -25611,8 +25611,8 @@
         <f>CRS!I79</f>
         <v/>
       </c>
-      <c r="AG79" s="301"/>
-      <c r="AH79" s="299"/>
+      <c r="AG79" s="374"/>
+      <c r="AH79" s="372"/>
     </row>
     <row r="80" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -25679,8 +25679,8 @@
         <f>CRS!I80</f>
         <v/>
       </c>
-      <c r="AG80" s="301"/>
-      <c r="AH80" s="299"/>
+      <c r="AG80" s="374"/>
+      <c r="AH80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -25960,6 +25960,110 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sq5jNjiBvRhnKHfivcv63PIil4qKS/9mQiV4aFr69nDzINu+0ecn8NT3diVZT68S0si8O2smy0x5/onhwU/zA==" saltValue="Xa18L1vVZidTgwLONF3CHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AG66:AG80"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AG26:AG40"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="E42:AF42"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AE43:AE49"/>
     <mergeCell ref="AF43:AF49"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="Z44:Z45"/>
@@ -25984,110 +26088,6 @@
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="E1:AF1"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AG66:AG80"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AG26:AG40"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="E42:AF42"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <dataValidations xWindow="307" yWindow="360" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -26191,44 +26191,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -26236,51 +26236,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -26290,90 +26290,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -26381,40 +26381,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -26422,8 +26422,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -26431,13 +26431,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -26448,8 +26448,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -26460,13 +26460,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -26474,51 +26474,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -26526,45 +26526,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -26572,39 +26572,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -27928,8 +27928,8 @@
         <f>CRS!O26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28002,8 +28002,8 @@
         <f>CRS!O27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -28074,8 +28074,8 @@
         <f>CRS!O28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -28146,8 +28146,8 @@
         <f>CRS!O29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -28218,8 +28218,8 @@
         <f>CRS!O30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -28290,8 +28290,8 @@
         <f>CRS!O31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -28362,8 +28362,8 @@
         <f>CRS!O32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -28434,8 +28434,8 @@
         <f>CRS!O33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -28509,8 +28509,8 @@
         <f>CRS!O34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -28584,8 +28584,8 @@
         <f>CRS!O35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -28659,8 +28659,8 @@
         <f>CRS!O36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -28734,8 +28734,8 @@
         <f>CRS!O37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -28809,8 +28809,8 @@
         <f>CRS!O38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -28884,8 +28884,8 @@
         <f>CRS!O39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -28959,8 +28959,8 @@
         <f>CRS!O40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -29006,44 +29006,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -29051,52 +29051,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -29106,90 +29106,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -29197,40 +29197,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -29238,8 +29238,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -29247,13 +29247,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -29294,8 +29294,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -29336,16 +29336,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -29353,111 +29353,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40603</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -29465,45 +29465,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -29511,39 +29511,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -30736,8 +30736,8 @@
         <f>CRS!O66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30810,8 +30810,8 @@
         <f>CRS!O67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -30882,8 +30882,8 @@
         <f>CRS!O68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -30954,8 +30954,8 @@
         <f>CRS!O69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -31026,8 +31026,8 @@
         <f>CRS!O70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -31098,8 +31098,8 @@
         <f>CRS!O71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -31170,8 +31170,8 @@
         <f>CRS!O72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -31242,8 +31242,8 @@
         <f>CRS!O73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -31314,8 +31314,8 @@
         <f>CRS!O74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -31386,8 +31386,8 @@
         <f>CRS!O75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -31458,8 +31458,8 @@
         <f>CRS!O76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -31530,8 +31530,8 @@
         <f>CRS!O77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -31602,8 +31602,8 @@
         <f>CRS!O78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -31674,8 +31674,8 @@
         <f>CRS!O79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -31746,8 +31746,8 @@
         <f>CRS!O80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -32027,15 +32027,103 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T2d19Gm7punEibsNJBgdh3ZzUcufk8+PQOuJQC1tA+RpVS+cs4H5fTH4F9aOQxwJS4PY4SJQO4kn/oJxgTi2mQ==" saltValue="yl0eVcUIiysAylQWPtO/Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="I47:I49"/>
     <mergeCell ref="O47:O49"/>
@@ -32060,103 +32148,15 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AD46:AD49"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
@@ -32260,44 +32260,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -32305,51 +32305,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -32359,90 +32359,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -32450,40 +32450,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M306</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -32491,8 +32491,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -32500,13 +32500,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -32517,8 +32517,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -32529,13 +32529,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -32543,51 +32543,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -32595,45 +32595,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -32641,39 +32641,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -33997,8 +33997,8 @@
         <f>CRS!U26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34071,8 +34071,8 @@
         <f>CRS!U27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -34143,8 +34143,8 @@
         <f>CRS!U28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -34215,8 +34215,8 @@
         <f>CRS!U29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -34287,8 +34287,8 @@
         <f>CRS!U30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -34359,8 +34359,8 @@
         <f>CRS!U31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -34431,8 +34431,8 @@
         <f>CRS!U32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -34503,8 +34503,8 @@
         <f>CRS!U33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -34578,8 +34578,8 @@
         <f>CRS!U34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -34653,8 +34653,8 @@
         <f>CRS!U35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -34728,8 +34728,8 @@
         <f>CRS!U36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -34803,8 +34803,8 @@
         <f>CRS!U37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -34878,8 +34878,8 @@
         <f>CRS!U38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -34953,8 +34953,8 @@
         <f>CRS!U39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -35028,8 +35028,8 @@
         <f>CRS!U40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -35075,44 +35075,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS 2D  ITE16</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -35120,52 +35120,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -35175,90 +35175,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>MULTIMEDIA SYSTEMS</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -35266,40 +35266,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M306</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -35307,8 +35307,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -35316,13 +35316,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2ND Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -35363,8 +35363,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -35405,16 +35405,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -35422,111 +35422,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40634</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -35534,45 +35534,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -35580,39 +35580,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -36805,8 +36805,8 @@
         <f>CRS!U66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -36879,8 +36879,8 @@
         <f>CRS!U67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -36951,8 +36951,8 @@
         <f>CRS!U68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -37023,8 +37023,8 @@
         <f>CRS!U69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -37095,8 +37095,8 @@
         <f>CRS!U70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -37167,8 +37167,8 @@
         <f>CRS!U71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -37239,8 +37239,8 @@
         <f>CRS!U72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -37311,8 +37311,8 @@
         <f>CRS!U73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -37383,8 +37383,8 @@
         <f>CRS!U74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -37455,8 +37455,8 @@
         <f>CRS!U75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -37527,8 +37527,8 @@
         <f>CRS!U76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -37599,8 +37599,8 @@
         <f>CRS!U77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -37671,8 +37671,8 @@
         <f>CRS!U78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -37743,8 +37743,8 @@
         <f>CRS!U79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -37815,8 +37815,8 @@
         <f>CRS!U80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -38096,16 +38096,102 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r9GU55Q6M2zTlwa014WpkfKiky8Sb8v4KLpKizRfX9cdBMIz1ysRsotcKQrpvBSarNV9EJ4HGzIGqk6p3/Mr3A==" saltValue="54XUZU5JGZ6/eLh4J4iIXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O46"/>
@@ -38130,102 +38216,16 @@
     <mergeCell ref="N47:N49"/>
     <mergeCell ref="O47:O49"/>
     <mergeCell ref="R47:R49"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -38385,55 +38385,55 @@
         <f>'INITIAL INPUT'!D12</f>
         <v>CITCS 2D</v>
       </c>
-      <c r="C11" s="381" t="str">
+      <c r="C11" s="385" t="str">
         <f>'INITIAL INPUT'!G12</f>
         <v>ITE16</v>
       </c>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
+      <c r="D11" s="386"/>
+      <c r="E11" s="386"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="383" t="str">
+      <c r="G11" s="387" t="str">
         <f>CRS!A4</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="H11" s="384"/>
-      <c r="I11" s="384"/>
-      <c r="J11" s="384"/>
-      <c r="K11" s="384"/>
-      <c r="L11" s="384"/>
-      <c r="M11" s="384"/>
+      <c r="H11" s="388"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="388"/>
+      <c r="K11" s="388"/>
+      <c r="L11" s="388"/>
+      <c r="M11" s="388"/>
       <c r="N11" s="164"/>
-      <c r="O11" s="385" t="str">
+      <c r="O11" s="389" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester")</f>
         <v>2ND Trimester</v>
       </c>
-      <c r="P11" s="382"/>
+      <c r="P11" s="386"/>
     </row>
     <row r="12" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="386" t="s">
+      <c r="C12" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="163"/>
-      <c r="G12" s="387" t="s">
+      <c r="G12" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
+      <c r="H12" s="372"/>
+      <c r="I12" s="372"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="372"/>
+      <c r="M12" s="372"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="388" t="str">
+      <c r="O12" s="381" t="str">
         <f>CONCATENATE("SY ",'INITIAL INPUT'!D16)</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P12" s="389"/>
+      <c r="P12" s="382"/>
       <c r="Q12" s="128"/>
       <c r="R12" s="128"/>
       <c r="S12" s="128"/>
@@ -38511,10 +38511,10 @@
         <v>145</v>
       </c>
       <c r="N14" s="136"/>
-      <c r="O14" s="379" t="s">
+      <c r="O14" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="380"/>
+      <c r="P14" s="384"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -40786,55 +40786,55 @@
         <f>A11</f>
         <v>CITCS 2D</v>
       </c>
-      <c r="C72" s="381" t="str">
+      <c r="C72" s="385" t="str">
         <f>C11</f>
         <v>ITE16</v>
       </c>
-      <c r="D72" s="382"/>
-      <c r="E72" s="382"/>
+      <c r="D72" s="386"/>
+      <c r="E72" s="386"/>
       <c r="F72" s="163"/>
-      <c r="G72" s="383" t="str">
+      <c r="G72" s="387" t="str">
         <f>G11</f>
         <v>TTH 3:00PM-4:15PM  TTHSAT 1:45PM-3:00PM</v>
       </c>
-      <c r="H72" s="384"/>
-      <c r="I72" s="384"/>
-      <c r="J72" s="384"/>
-      <c r="K72" s="384"/>
-      <c r="L72" s="384"/>
-      <c r="M72" s="384"/>
+      <c r="H72" s="388"/>
+      <c r="I72" s="388"/>
+      <c r="J72" s="388"/>
+      <c r="K72" s="388"/>
+      <c r="L72" s="388"/>
+      <c r="M72" s="388"/>
       <c r="N72" s="164"/>
-      <c r="O72" s="385" t="str">
+      <c r="O72" s="389" t="str">
         <f>O11</f>
         <v>2ND Trimester</v>
       </c>
-      <c r="P72" s="382"/>
+      <c r="P72" s="386"/>
     </row>
     <row r="73" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="386" t="s">
+      <c r="C73" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="299"/>
-      <c r="E73" s="299"/>
+      <c r="D73" s="372"/>
+      <c r="E73" s="372"/>
       <c r="F73" s="163"/>
-      <c r="G73" s="387" t="s">
+      <c r="G73" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="299"/>
-      <c r="I73" s="299"/>
-      <c r="J73" s="299"/>
-      <c r="K73" s="299"/>
-      <c r="L73" s="299"/>
-      <c r="M73" s="299"/>
+      <c r="H73" s="372"/>
+      <c r="I73" s="372"/>
+      <c r="J73" s="372"/>
+      <c r="K73" s="372"/>
+      <c r="L73" s="372"/>
+      <c r="M73" s="372"/>
       <c r="N73" s="106"/>
-      <c r="O73" s="388" t="str">
+      <c r="O73" s="381" t="str">
         <f>O12</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P73" s="389"/>
+      <c r="P73" s="382"/>
       <c r="Q73" s="128"/>
       <c r="R73" s="128"/>
       <c r="S73" s="128"/>
@@ -40912,10 +40912,10 @@
         <v>145</v>
       </c>
       <c r="N75" s="136"/>
-      <c r="O75" s="379" t="s">
+      <c r="O75" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P75" s="380"/>
+      <c r="P75" s="384"/>
       <c r="Q75" s="137"/>
       <c r="R75" s="137"/>
       <c r="S75" s="137"/>
@@ -43273,6 +43273,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rr4KBu2AEFa/KySpnCO0Ck38T/nOom3i2FxuhAYlP4JgnWP0E17tEsMn8PpgA+OHXpLmFfOJ659NttGsaGyyCQ==" saltValue="bJvSSGehZYl6UeN9dD1Evw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="78">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="O96:P96"/>
     <mergeCell ref="O97:P97"/>
@@ -43285,72 +43351,6 @@
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="O105:P105"/>
     <mergeCell ref="O106:P106"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N46 N76:N107">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notBetween">

--- a/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\GIT\ClassRecords\2T1617CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\ClassRecords\2T1617CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="261">
   <si>
     <t>J</t>
   </si>
@@ -951,6 +951,27 @@
   </si>
   <si>
     <t>Lesson 05</t>
+  </si>
+  <si>
+    <t>PS.TEXTART</t>
+  </si>
+  <si>
+    <t>AUD.EX01</t>
+  </si>
+  <si>
+    <t>AUD.EX2</t>
+  </si>
+  <si>
+    <t>QUIZ CH.03</t>
+  </si>
+  <si>
+    <t>QUIZ CH.04</t>
+  </si>
+  <si>
+    <t>QUIZ CH.05</t>
+  </si>
+  <si>
+    <t>TEXT TEMPLATE</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3863,6 +3884,18 @@
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12125,7 +12158,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -12513,21 +12546,21 @@
         <f>IF(MIDTERM!AB9="","",$K$8*MIDTERM!AB9)</f>
         <v/>
       </c>
-      <c r="L9" s="83" t="str">
+      <c r="L9" s="83">
         <f>IF(MIDTERM!AD9="","",$L$8*MIDTERM!AD9)</f>
-        <v/>
-      </c>
-      <c r="M9" s="86" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="M9" s="86">
         <f>IF(SUM(J9:L9)=0,"",SUM(J9:L9))</f>
-        <v/>
-      </c>
-      <c r="N9" s="87" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="N9" s="87">
         <f>IF(M9="","",('INITIAL INPUT'!$J$25*CRS!H9+'INITIAL INPUT'!$K$25*CRS!M9))</f>
-        <v/>
-      </c>
-      <c r="O9" s="85" t="str">
+        <v>39.158333333333331</v>
+      </c>
+      <c r="O9" s="85">
         <f>IF(N9="","",VLOOKUP(N9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P9" s="83" t="str">
         <f>IF(FINAL!P9="","",CRS!$P$8*FINAL!P9)</f>
@@ -12604,21 +12637,21 @@
         <f>IF(MIDTERM!AB10="","",$K$8*MIDTERM!AB10)</f>
         <v/>
       </c>
-      <c r="L10" s="83" t="str">
+      <c r="L10" s="83">
         <f>IF(MIDTERM!AD10="","",$L$8*MIDTERM!AD10)</f>
-        <v/>
-      </c>
-      <c r="M10" s="86" t="str">
+        <v>24.48</v>
+      </c>
+      <c r="M10" s="86">
         <f t="shared" ref="M10:M40" si="2">IF(SUM(J10:L10)=0,"",SUM(J10:L10))</f>
-        <v/>
-      </c>
-      <c r="N10" s="87" t="str">
+        <v>24.48</v>
+      </c>
+      <c r="N10" s="87">
         <f>IF(M10="","",('INITIAL INPUT'!$J$25*CRS!H10+'INITIAL INPUT'!$K$25*CRS!M10))</f>
-        <v/>
-      </c>
-      <c r="O10" s="85" t="str">
+        <v>48.217500000000001</v>
+      </c>
+      <c r="O10" s="85">
         <f>IF(N10="","",VLOOKUP(N10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P10" s="83" t="str">
         <f>IF(FINAL!P10="","",CRS!$P$8*FINAL!P10)</f>
@@ -12698,21 +12731,21 @@
         <f>IF(MIDTERM!AB11="","",$K$8*MIDTERM!AB11)</f>
         <v/>
       </c>
-      <c r="L11" s="83" t="str">
+      <c r="L11" s="83">
         <f>IF(MIDTERM!AD11="","",$L$8*MIDTERM!AD11)</f>
-        <v/>
-      </c>
-      <c r="M11" s="86" t="str">
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="M11" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="87" t="str">
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="N11" s="87">
         <f>IF(M11="","",('INITIAL INPUT'!$J$25*CRS!H11+'INITIAL INPUT'!$K$25*CRS!M11))</f>
-        <v/>
-      </c>
-      <c r="O11" s="85" t="str">
+        <v>38.017500000000005</v>
+      </c>
+      <c r="O11" s="85">
         <f>IF(N11="","",VLOOKUP(N11,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P11" s="83" t="str">
         <f>IF(FINAL!P11="","",CRS!$P$8*FINAL!P11)</f>
@@ -12792,21 +12825,21 @@
         <f>IF(MIDTERM!AB12="","",$K$8*MIDTERM!AB12)</f>
         <v/>
       </c>
-      <c r="L12" s="83" t="str">
+      <c r="L12" s="83">
         <f>IF(MIDTERM!AD12="","",$L$8*MIDTERM!AD12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="86" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="M12" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N12" s="87" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="N12" s="87">
         <f>IF(M12="","",('INITIAL INPUT'!$J$25*CRS!H12+'INITIAL INPUT'!$K$25*CRS!M12))</f>
-        <v/>
-      </c>
-      <c r="O12" s="85" t="str">
+        <v>37.30916666666667</v>
+      </c>
+      <c r="O12" s="85">
         <f>IF(N12="","",VLOOKUP(N12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P12" s="83" t="str">
         <f>IF(FINAL!P12="","",CRS!$P$8*FINAL!P12)</f>
@@ -12886,21 +12919,21 @@
         <f>IF(MIDTERM!AB13="","",$K$8*MIDTERM!AB13)</f>
         <v/>
       </c>
-      <c r="L13" s="83" t="str">
+      <c r="L13" s="83">
         <f>IF(MIDTERM!AD13="","",$L$8*MIDTERM!AD13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="86" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="M13" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N13" s="87" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="N13" s="87">
         <f>IF(M13="","",('INITIAL INPUT'!$J$25*CRS!H13+'INITIAL INPUT'!$K$25*CRS!M13))</f>
-        <v/>
-      </c>
-      <c r="O13" s="85" t="str">
+        <v>40.090833333333329</v>
+      </c>
+      <c r="O13" s="85">
         <f>IF(N13="","",VLOOKUP(N13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P13" s="83" t="str">
         <f>IF(FINAL!P13="","",CRS!$P$8*FINAL!P13)</f>
@@ -13074,21 +13107,21 @@
         <f>IF(MIDTERM!AB15="","",$K$8*MIDTERM!AB15)</f>
         <v/>
       </c>
-      <c r="L15" s="83" t="str">
+      <c r="L15" s="83">
         <f>IF(MIDTERM!AD15="","",$L$8*MIDTERM!AD15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="86" t="str">
+        <v>20.853333333333332</v>
+      </c>
+      <c r="M15" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="87" t="str">
+        <v>20.853333333333332</v>
+      </c>
+      <c r="N15" s="87">
         <f>IF(M15="","",('INITIAL INPUT'!$J$25*CRS!H15+'INITIAL INPUT'!$K$25*CRS!M15))</f>
-        <v/>
-      </c>
-      <c r="O15" s="85" t="str">
+        <v>50.644166666666663</v>
+      </c>
+      <c r="O15" s="85">
         <f>IF(N15="","",VLOOKUP(N15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="P15" s="83" t="str">
         <f>IF(FINAL!P15="","",CRS!$P$8*FINAL!P15)</f>
@@ -13168,21 +13201,21 @@
         <f>IF(MIDTERM!AB16="","",$K$8*MIDTERM!AB16)</f>
         <v/>
       </c>
-      <c r="L16" s="83" t="str">
+      <c r="L16" s="83">
         <f>IF(MIDTERM!AD16="","",$L$8*MIDTERM!AD16)</f>
-        <v/>
-      </c>
-      <c r="M16" s="86" t="str">
+        <v>11.786666666666669</v>
+      </c>
+      <c r="M16" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N16" s="87" t="str">
+        <v>11.786666666666669</v>
+      </c>
+      <c r="N16" s="87">
         <f>IF(M16="","",('INITIAL INPUT'!$J$25*CRS!H16+'INITIAL INPUT'!$K$25*CRS!M16))</f>
-        <v/>
-      </c>
-      <c r="O16" s="85" t="str">
+        <v>27.478333333333335</v>
+      </c>
+      <c r="O16" s="85">
         <f>IF(N16="","",VLOOKUP(N16,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P16" s="83" t="str">
         <f>IF(FINAL!P16="","",CRS!$P$8*FINAL!P16)</f>
@@ -13262,21 +13295,21 @@
         <f>IF(MIDTERM!AB17="","",$K$8*MIDTERM!AB17)</f>
         <v/>
       </c>
-      <c r="L17" s="83" t="str">
+      <c r="L17" s="83">
         <f>IF(MIDTERM!AD17="","",$L$8*MIDTERM!AD17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="86" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="M17" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="87" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="N17" s="87">
         <f>IF(M17="","",('INITIAL INPUT'!$J$25*CRS!H17+'INITIAL INPUT'!$K$25*CRS!M17))</f>
-        <v/>
-      </c>
-      <c r="O17" s="85" t="str">
+        <v>49.025833333333338</v>
+      </c>
+      <c r="O17" s="85">
         <f>IF(N17="","",VLOOKUP(N17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P17" s="83" t="str">
         <f>IF(FINAL!P17="","",CRS!$P$8*FINAL!P17)</f>
@@ -13356,21 +13389,21 @@
         <f>IF(MIDTERM!AB18="","",$K$8*MIDTERM!AB18)</f>
         <v/>
       </c>
-      <c r="L18" s="83" t="str">
+      <c r="L18" s="83">
         <f>IF(MIDTERM!AD18="","",$L$8*MIDTERM!AD18)</f>
-        <v/>
-      </c>
-      <c r="M18" s="86" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="M18" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N18" s="87" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="N18" s="87">
         <f>IF(M18="","",('INITIAL INPUT'!$J$25*CRS!H18+'INITIAL INPUT'!$K$25*CRS!M18))</f>
-        <v/>
-      </c>
-      <c r="O18" s="85" t="str">
+        <v>35.826666666666668</v>
+      </c>
+      <c r="O18" s="85">
         <f>IF(N18="","",VLOOKUP(N18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P18" s="83" t="str">
         <f>IF(FINAL!P18="","",CRS!$P$8*FINAL!P18)</f>
@@ -13450,21 +13483,21 @@
         <f>IF(MIDTERM!AB19="","",$K$8*MIDTERM!AB19)</f>
         <v/>
       </c>
-      <c r="L19" s="83" t="str">
+      <c r="L19" s="83">
         <f>IF(MIDTERM!AD19="","",$L$8*MIDTERM!AD19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="86" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="M19" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N19" s="87" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="N19" s="87">
         <f>IF(M19="","",('INITIAL INPUT'!$J$25*CRS!H19+'INITIAL INPUT'!$K$25*CRS!M19))</f>
-        <v/>
-      </c>
-      <c r="O19" s="85" t="str">
+        <v>56.955833333333338</v>
+      </c>
+      <c r="O19" s="85">
         <f>IF(N19="","",VLOOKUP(N19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="P19" s="83" t="str">
         <f>IF(FINAL!P19="","",CRS!$P$8*FINAL!P19)</f>
@@ -13544,21 +13577,21 @@
         <f>IF(MIDTERM!AB20="","",$K$8*MIDTERM!AB20)</f>
         <v/>
       </c>
-      <c r="L20" s="83" t="str">
+      <c r="L20" s="83">
         <f>IF(MIDTERM!AD20="","",$L$8*MIDTERM!AD20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="86" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="M20" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N20" s="87" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="N20" s="87">
         <f>IF(M20="","",('INITIAL INPUT'!$J$25*CRS!H20+'INITIAL INPUT'!$K$25*CRS!M20))</f>
-        <v/>
-      </c>
-      <c r="O20" s="85" t="str">
+        <v>56.56583333333333</v>
+      </c>
+      <c r="O20" s="85">
         <f>IF(N20="","",VLOOKUP(N20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="P20" s="83" t="str">
         <f>IF(FINAL!P20="","",CRS!$P$8*FINAL!P20)</f>
@@ -13638,21 +13671,21 @@
         <f>IF(MIDTERM!AB21="","",$K$8*MIDTERM!AB21)</f>
         <v/>
       </c>
-      <c r="L21" s="83" t="str">
+      <c r="L21" s="83">
         <f>IF(MIDTERM!AD21="","",$L$8*MIDTERM!AD21)</f>
-        <v/>
-      </c>
-      <c r="M21" s="86" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="M21" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N21" s="87" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="N21" s="87">
         <f>IF(M21="","",('INITIAL INPUT'!$J$25*CRS!H21+'INITIAL INPUT'!$K$25*CRS!M21))</f>
-        <v/>
-      </c>
-      <c r="O21" s="85" t="str">
+        <v>46.787499999999994</v>
+      </c>
+      <c r="O21" s="85">
         <f>IF(N21="","",VLOOKUP(N21,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P21" s="83" t="str">
         <f>IF(FINAL!P21="","",CRS!$P$8*FINAL!P21)</f>
@@ -13732,21 +13765,21 @@
         <f>IF(MIDTERM!AB22="","",$K$8*MIDTERM!AB22)</f>
         <v/>
       </c>
-      <c r="L22" s="83" t="str">
+      <c r="L22" s="83">
         <f>IF(MIDTERM!AD22="","",$L$8*MIDTERM!AD22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="86" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="M22" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N22" s="87" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="N22" s="87">
         <f>IF(M22="","",('INITIAL INPUT'!$J$25*CRS!H22+'INITIAL INPUT'!$K$25*CRS!M22))</f>
-        <v/>
-      </c>
-      <c r="O22" s="85" t="str">
+        <v>58.605833333333337</v>
+      </c>
+      <c r="O22" s="85">
         <f>IF(N22="","",VLOOKUP(N22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="P22" s="83" t="str">
         <f>IF(FINAL!P22="","",CRS!$P$8*FINAL!P22)</f>
@@ -13826,21 +13859,21 @@
         <f>IF(MIDTERM!AB23="","",$K$8*MIDTERM!AB23)</f>
         <v/>
       </c>
-      <c r="L23" s="83" t="str">
+      <c r="L23" s="83">
         <f>IF(MIDTERM!AD23="","",$L$8*MIDTERM!AD23)</f>
-        <v/>
-      </c>
-      <c r="M23" s="86" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="M23" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N23" s="87" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="N23" s="87">
         <f>IF(M23="","",('INITIAL INPUT'!$J$25*CRS!H23+'INITIAL INPUT'!$K$25*CRS!M23))</f>
-        <v/>
-      </c>
-      <c r="O23" s="85" t="str">
+        <v>57.052500000000009</v>
+      </c>
+      <c r="O23" s="85">
         <f>IF(N23="","",VLOOKUP(N23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="P23" s="83" t="str">
         <f>IF(FINAL!P23="","",CRS!$P$8*FINAL!P23)</f>
@@ -13920,21 +13953,21 @@
         <f>IF(MIDTERM!AB24="","",$K$8*MIDTERM!AB24)</f>
         <v/>
       </c>
-      <c r="L24" s="83" t="str">
+      <c r="L24" s="83">
         <f>IF(MIDTERM!AD24="","",$L$8*MIDTERM!AD24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="86" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="M24" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N24" s="87" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="N24" s="87">
         <f>IF(M24="","",('INITIAL INPUT'!$J$25*CRS!H24+'INITIAL INPUT'!$K$25*CRS!M24))</f>
-        <v/>
-      </c>
-      <c r="O24" s="85" t="str">
+        <v>43.38333333333334</v>
+      </c>
+      <c r="O24" s="85">
         <f>IF(N24="","",VLOOKUP(N24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P24" s="83" t="str">
         <f>IF(FINAL!P24="","",CRS!$P$8*FINAL!P24)</f>
@@ -14014,21 +14047,21 @@
         <f>IF(MIDTERM!AB25="","",$K$8*MIDTERM!AB25)</f>
         <v/>
       </c>
-      <c r="L25" s="83" t="str">
+      <c r="L25" s="83">
         <f>IF(MIDTERM!AD25="","",$L$8*MIDTERM!AD25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="86" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="M25" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N25" s="87" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="N25" s="87">
         <f>IF(M25="","",('INITIAL INPUT'!$J$25*CRS!H25+'INITIAL INPUT'!$K$25*CRS!M25))</f>
-        <v/>
-      </c>
-      <c r="O25" s="85" t="str">
+        <v>35.456666666666663</v>
+      </c>
+      <c r="O25" s="85">
         <f>IF(N25="","",VLOOKUP(N25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P25" s="83" t="str">
         <f>IF(FINAL!P25="","",CRS!$P$8*FINAL!P25)</f>
@@ -14108,21 +14141,21 @@
         <f>IF(MIDTERM!AB26="","",$K$8*MIDTERM!AB26)</f>
         <v/>
       </c>
-      <c r="L26" s="83" t="str">
+      <c r="L26" s="83">
         <f>IF(MIDTERM!AD26="","",$L$8*MIDTERM!AD26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="86" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="M26" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N26" s="87" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="N26" s="87">
         <f>IF(M26="","",('INITIAL INPUT'!$J$25*CRS!H26+'INITIAL INPUT'!$K$25*CRS!M26))</f>
-        <v/>
-      </c>
-      <c r="O26" s="85" t="str">
+        <v>53.760000000000005</v>
+      </c>
+      <c r="O26" s="85">
         <f>IF(N26="","",VLOOKUP(N26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P26" s="83" t="str">
         <f>IF(FINAL!P26="","",CRS!$P$8*FINAL!P26)</f>
@@ -14205,21 +14238,21 @@
         <f>IF(MIDTERM!AB27="","",$K$8*MIDTERM!AB27)</f>
         <v/>
       </c>
-      <c r="L27" s="83" t="str">
+      <c r="L27" s="83">
         <f>IF(MIDTERM!AD27="","",$L$8*MIDTERM!AD27)</f>
-        <v/>
-      </c>
-      <c r="M27" s="86" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="M27" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="87" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="N27" s="87">
         <f>IF(M27="","",('INITIAL INPUT'!$J$25*CRS!H27+'INITIAL INPUT'!$K$25*CRS!M27))</f>
-        <v/>
-      </c>
-      <c r="O27" s="85" t="str">
+        <v>45.089166666666671</v>
+      </c>
+      <c r="O27" s="85">
         <f>IF(N27="","",VLOOKUP(N27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P27" s="83" t="str">
         <f>IF(FINAL!P27="","",CRS!$P$8*FINAL!P27)</f>
@@ -14300,21 +14333,21 @@
         <f>IF(MIDTERM!AB28="","",$K$8*MIDTERM!AB28)</f>
         <v/>
       </c>
-      <c r="L28" s="83" t="str">
+      <c r="L28" s="83">
         <f>IF(MIDTERM!AD28="","",$L$8*MIDTERM!AD28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="86" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="M28" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="87" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="N28" s="87">
         <f>IF(M28="","",('INITIAL INPUT'!$J$25*CRS!H28+'INITIAL INPUT'!$K$25*CRS!M28))</f>
-        <v/>
-      </c>
-      <c r="O28" s="85" t="str">
+        <v>40.284166666666664</v>
+      </c>
+      <c r="O28" s="85">
         <f>IF(N28="","",VLOOKUP(N28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P28" s="83" t="str">
         <f>IF(FINAL!P28="","",CRS!$P$8*FINAL!P28)</f>
@@ -14395,21 +14428,21 @@
         <f>IF(MIDTERM!AB29="","",$K$8*MIDTERM!AB29)</f>
         <v/>
       </c>
-      <c r="L29" s="83" t="str">
+      <c r="L29" s="83">
         <f>IF(MIDTERM!AD29="","",$L$8*MIDTERM!AD29)</f>
-        <v/>
-      </c>
-      <c r="M29" s="86" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="M29" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N29" s="87" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="N29" s="87">
         <f>IF(M29="","",('INITIAL INPUT'!$J$25*CRS!H29+'INITIAL INPUT'!$K$25*CRS!M29))</f>
-        <v/>
-      </c>
-      <c r="O29" s="85" t="str">
+        <v>44.150833333333338</v>
+      </c>
+      <c r="O29" s="85">
         <f>IF(N29="","",VLOOKUP(N29,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P29" s="83" t="str">
         <f>IF(FINAL!P29="","",CRS!$P$8*FINAL!P29)</f>
@@ -14490,21 +14523,21 @@
         <f>IF(MIDTERM!AB30="","",$K$8*MIDTERM!AB30)</f>
         <v/>
       </c>
-      <c r="L30" s="83" t="str">
+      <c r="L30" s="83">
         <f>IF(MIDTERM!AD30="","",$L$8*MIDTERM!AD30)</f>
-        <v/>
-      </c>
-      <c r="M30" s="86" t="str">
+        <v>14.96</v>
+      </c>
+      <c r="M30" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N30" s="87" t="str">
+        <v>14.96</v>
+      </c>
+      <c r="N30" s="87">
         <f>IF(M30="","",('INITIAL INPUT'!$J$25*CRS!H30+'INITIAL INPUT'!$K$25*CRS!M30))</f>
-        <v/>
-      </c>
-      <c r="O30" s="85" t="str">
+        <v>44.182500000000005</v>
+      </c>
+      <c r="O30" s="85">
         <f>IF(N30="","",VLOOKUP(N30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P30" s="83" t="str">
         <f>IF(FINAL!P30="","",CRS!$P$8*FINAL!P30)</f>
@@ -14585,21 +14618,21 @@
         <f>IF(MIDTERM!AB31="","",$K$8*MIDTERM!AB31)</f>
         <v/>
       </c>
-      <c r="L31" s="83" t="str">
+      <c r="L31" s="83">
         <f>IF(MIDTERM!AD31="","",$L$8*MIDTERM!AD31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="86" t="str">
+        <v>19.946666666666669</v>
+      </c>
+      <c r="M31" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N31" s="87" t="str">
+        <v>19.946666666666669</v>
+      </c>
+      <c r="N31" s="87">
         <f>IF(M31="","",('INITIAL INPUT'!$J$25*CRS!H31+'INITIAL INPUT'!$K$25*CRS!M31))</f>
-        <v/>
-      </c>
-      <c r="O31" s="85" t="str">
+        <v>51.783333333333339</v>
+      </c>
+      <c r="O31" s="85">
         <f>IF(N31="","",VLOOKUP(N31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="P31" s="83" t="str">
         <f>IF(FINAL!P31="","",CRS!$P$8*FINAL!P31)</f>
@@ -14680,21 +14713,21 @@
         <f>IF(MIDTERM!AB32="","",$K$8*MIDTERM!AB32)</f>
         <v/>
       </c>
-      <c r="L32" s="83" t="str">
+      <c r="L32" s="83">
         <f>IF(MIDTERM!AD32="","",$L$8*MIDTERM!AD32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="86" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="M32" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N32" s="87" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="N32" s="87">
         <f>IF(M32="","",('INITIAL INPUT'!$J$25*CRS!H32+'INITIAL INPUT'!$K$25*CRS!M32))</f>
-        <v/>
-      </c>
-      <c r="O32" s="85" t="str">
+        <v>54.752500000000005</v>
+      </c>
+      <c r="O32" s="85">
         <f>IF(N32="","",VLOOKUP(N32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P32" s="83" t="str">
         <f>IF(FINAL!P32="","",CRS!$P$8*FINAL!P32)</f>
@@ -14775,21 +14808,21 @@
         <f>IF(MIDTERM!AB33="","",$K$8*MIDTERM!AB33)</f>
         <v/>
       </c>
-      <c r="L33" s="83" t="str">
+      <c r="L33" s="83">
         <f>IF(MIDTERM!AD33="","",$L$8*MIDTERM!AD33)</f>
-        <v/>
-      </c>
-      <c r="M33" s="86" t="str">
+        <v>24.026666666666671</v>
+      </c>
+      <c r="M33" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N33" s="87" t="str">
+        <v>24.026666666666671</v>
+      </c>
+      <c r="N33" s="87">
         <f>IF(M33="","",('INITIAL INPUT'!$J$25*CRS!H33+'INITIAL INPUT'!$K$25*CRS!M33))</f>
-        <v/>
-      </c>
-      <c r="O33" s="85" t="str">
+        <v>54.575833333333335</v>
+      </c>
+      <c r="O33" s="85">
         <f>IF(N33="","",VLOOKUP(N33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P33" s="83" t="str">
         <f>IF(FINAL!P33="","",CRS!$P$8*FINAL!P33)</f>
@@ -14870,21 +14903,21 @@
         <f>IF(MIDTERM!AB34="","",$K$8*MIDTERM!AB34)</f>
         <v/>
       </c>
-      <c r="L34" s="83" t="str">
+      <c r="L34" s="83">
         <f>IF(MIDTERM!AD34="","",$L$8*MIDTERM!AD34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="86" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="M34" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N34" s="87" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="N34" s="87">
         <f>IF(M34="","",('INITIAL INPUT'!$J$25*CRS!H34+'INITIAL INPUT'!$K$25*CRS!M34))</f>
-        <v/>
-      </c>
-      <c r="O34" s="85" t="str">
+        <v>35.230000000000004</v>
+      </c>
+      <c r="O34" s="85">
         <f>IF(N34="","",VLOOKUP(N34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P34" s="83" t="str">
         <f>IF(FINAL!P34="","",CRS!$P$8*FINAL!P34)</f>
@@ -14965,21 +14998,21 @@
         <f>IF(MIDTERM!AB35="","",$K$8*MIDTERM!AB35)</f>
         <v/>
       </c>
-      <c r="L35" s="83" t="str">
+      <c r="L35" s="83">
         <f>IF(MIDTERM!AD35="","",$L$8*MIDTERM!AD35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="86" t="str">
+        <v>10.88</v>
+      </c>
+      <c r="M35" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N35" s="87" t="str">
+        <v>10.88</v>
+      </c>
+      <c r="N35" s="87">
         <f>IF(M35="","",('INITIAL INPUT'!$J$25*CRS!H35+'INITIAL INPUT'!$K$25*CRS!M35))</f>
-        <v/>
-      </c>
-      <c r="O35" s="85" t="str">
+        <v>44.602499999999999</v>
+      </c>
+      <c r="O35" s="85">
         <f>IF(N35="","",VLOOKUP(N35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P35" s="83" t="str">
         <f>IF(FINAL!P35="","",CRS!$P$8*FINAL!P35)</f>
@@ -15060,21 +15093,21 @@
         <f>IF(MIDTERM!AB36="","",$K$8*MIDTERM!AB36)</f>
         <v/>
       </c>
-      <c r="L36" s="83" t="str">
+      <c r="L36" s="83">
         <f>IF(MIDTERM!AD36="","",$L$8*MIDTERM!AD36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="86" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="M36" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N36" s="87" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="N36" s="87">
         <f>IF(M36="","",('INITIAL INPUT'!$J$25*CRS!H36+'INITIAL INPUT'!$K$25*CRS!M36))</f>
-        <v/>
-      </c>
-      <c r="O36" s="85" t="str">
+        <v>58.719166666666666</v>
+      </c>
+      <c r="O36" s="85">
         <f>IF(N36="","",VLOOKUP(N36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="P36" s="83" t="str">
         <f>IF(FINAL!P36="","",CRS!$P$8*FINAL!P36)</f>
@@ -15155,21 +15188,21 @@
         <f>IF(MIDTERM!AB37="","",$K$8*MIDTERM!AB37)</f>
         <v/>
       </c>
-      <c r="L37" s="83" t="str">
+      <c r="L37" s="83">
         <f>IF(MIDTERM!AD37="","",$L$8*MIDTERM!AD37)</f>
-        <v/>
-      </c>
-      <c r="M37" s="86" t="str">
+        <v>14.506666666666669</v>
+      </c>
+      <c r="M37" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N37" s="87" t="str">
+        <v>14.506666666666669</v>
+      </c>
+      <c r="N37" s="87">
         <f>IF(M37="","",('INITIAL INPUT'!$J$25*CRS!H37+'INITIAL INPUT'!$K$25*CRS!M37))</f>
-        <v/>
-      </c>
-      <c r="O37" s="85" t="str">
+        <v>42.218333333333341</v>
+      </c>
+      <c r="O37" s="85">
         <f>IF(N37="","",VLOOKUP(N37,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P37" s="83" t="str">
         <f>IF(FINAL!P37="","",CRS!$P$8*FINAL!P37)</f>
@@ -15250,21 +15283,21 @@
         <f>IF(MIDTERM!AB38="","",$K$8*MIDTERM!AB38)</f>
         <v/>
       </c>
-      <c r="L38" s="83" t="str">
+      <c r="L38" s="83">
         <f>IF(MIDTERM!AD38="","",$L$8*MIDTERM!AD38)</f>
-        <v/>
-      </c>
-      <c r="M38" s="86" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="M38" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N38" s="87" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="N38" s="87">
         <f>IF(M38="","",('INITIAL INPUT'!$J$25*CRS!H38+'INITIAL INPUT'!$K$25*CRS!M38))</f>
-        <v/>
-      </c>
-      <c r="O38" s="85" t="str">
+        <v>43.359166666666667</v>
+      </c>
+      <c r="O38" s="85">
         <f>IF(N38="","",VLOOKUP(N38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P38" s="83" t="str">
         <f>IF(FINAL!P38="","",CRS!$P$8*FINAL!P38)</f>
@@ -15345,21 +15378,21 @@
         <f>IF(MIDTERM!AB39="","",$K$8*MIDTERM!AB39)</f>
         <v/>
       </c>
-      <c r="L39" s="83" t="str">
+      <c r="L39" s="83">
         <f>IF(MIDTERM!AD39="","",$L$8*MIDTERM!AD39)</f>
-        <v/>
-      </c>
-      <c r="M39" s="86" t="str">
+        <v>22.213333333333335</v>
+      </c>
+      <c r="M39" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N39" s="87" t="str">
+        <v>22.213333333333335</v>
+      </c>
+      <c r="N39" s="87">
         <f>IF(M39="","",('INITIAL INPUT'!$J$25*CRS!H39+'INITIAL INPUT'!$K$25*CRS!M39))</f>
-        <v/>
-      </c>
-      <c r="O39" s="85" t="str">
+        <v>54.299166666666672</v>
+      </c>
+      <c r="O39" s="85">
         <f>IF(N39="","",VLOOKUP(N39,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P39" s="83" t="str">
         <f>IF(FINAL!P39="","",CRS!$P$8*FINAL!P39)</f>
@@ -15440,21 +15473,21 @@
         <f>IF(MIDTERM!AB40="","",$K$8*MIDTERM!AB40)</f>
         <v/>
       </c>
-      <c r="L40" s="83" t="str">
+      <c r="L40" s="83">
         <f>IF(MIDTERM!AD40="","",$L$8*MIDTERM!AD40)</f>
-        <v/>
-      </c>
-      <c r="M40" s="86" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="M40" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N40" s="87" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="N40" s="87">
         <f>IF(M40="","",('INITIAL INPUT'!$J$25*CRS!H40+'INITIAL INPUT'!$K$25*CRS!M40))</f>
-        <v/>
-      </c>
-      <c r="O40" s="85" t="str">
+        <v>48.75416666666667</v>
+      </c>
+      <c r="O40" s="85">
         <f>IF(N40="","",VLOOKUP(N40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P40" s="83" t="str">
         <f>IF(FINAL!P40="","",CRS!$P$8*FINAL!P40)</f>
@@ -15939,21 +15972,21 @@
         <f>IF(MIDTERM!AB51="","",$K$8*MIDTERM!AB51)</f>
         <v/>
       </c>
-      <c r="L51" s="83" t="str">
+      <c r="L51" s="83">
         <f>IF(MIDTERM!AD51="","",$L$8*MIDTERM!AD51)</f>
-        <v/>
-      </c>
-      <c r="M51" s="86" t="str">
+        <v>25.38666666666667</v>
+      </c>
+      <c r="M51" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N51" s="87" t="str">
+        <v>25.38666666666667</v>
+      </c>
+      <c r="N51" s="87">
         <f>IF(M51="","",('INITIAL INPUT'!$J$25*CRS!H51+'INITIAL INPUT'!$K$25*CRS!M51))</f>
-        <v/>
-      </c>
-      <c r="O51" s="85" t="str">
+        <v>53.670833333333334</v>
+      </c>
+      <c r="O51" s="85">
         <f>IF(N51="","",VLOOKUP(N51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P51" s="83" t="str">
         <f>IF(FINAL!P51="","",CRS!$P$8*FINAL!P51)</f>
@@ -16033,21 +16066,21 @@
         <f>IF(MIDTERM!AB52="","",$K$8*MIDTERM!AB52)</f>
         <v/>
       </c>
-      <c r="L52" s="83" t="str">
+      <c r="L52" s="83">
         <f>IF(MIDTERM!AD52="","",$L$8*MIDTERM!AD52)</f>
-        <v/>
-      </c>
-      <c r="M52" s="86" t="str">
+        <v>19.040000000000003</v>
+      </c>
+      <c r="M52" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N52" s="87" t="str">
+        <v>19.040000000000003</v>
+      </c>
+      <c r="N52" s="87">
         <f>IF(M52="","",('INITIAL INPUT'!$J$25*CRS!H52+'INITIAL INPUT'!$K$25*CRS!M52))</f>
-        <v/>
-      </c>
-      <c r="O52" s="85" t="str">
+        <v>47.872500000000009</v>
+      </c>
+      <c r="O52" s="85">
         <f>IF(N52="","",VLOOKUP(N52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P52" s="83" t="str">
         <f>IF(FINAL!P52="","",CRS!$P$8*FINAL!P52)</f>
@@ -16221,21 +16254,21 @@
         <f>IF(MIDTERM!AB54="","",$K$8*MIDTERM!AB54)</f>
         <v/>
       </c>
-      <c r="L54" s="83" t="str">
+      <c r="L54" s="83">
         <f>IF(MIDTERM!AD54="","",$L$8*MIDTERM!AD54)</f>
-        <v/>
-      </c>
-      <c r="M54" s="86" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="M54" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N54" s="87" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="N54" s="87">
         <f>IF(M54="","",('INITIAL INPUT'!$J$25*CRS!H54+'INITIAL INPUT'!$K$25*CRS!M54))</f>
-        <v/>
-      </c>
-      <c r="O54" s="85" t="str">
+        <v>54.072500000000005</v>
+      </c>
+      <c r="O54" s="85">
         <f>IF(N54="","",VLOOKUP(N54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="P54" s="83" t="str">
         <f>IF(FINAL!P54="","",CRS!$P$8*FINAL!P54)</f>
@@ -16315,21 +16348,21 @@
         <f>IF(MIDTERM!AB55="","",$K$8*MIDTERM!AB55)</f>
         <v/>
       </c>
-      <c r="L55" s="83" t="str">
+      <c r="L55" s="83">
         <f>IF(MIDTERM!AD55="","",$L$8*MIDTERM!AD55)</f>
-        <v/>
-      </c>
-      <c r="M55" s="86" t="str">
+        <v>23.12</v>
+      </c>
+      <c r="M55" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N55" s="87" t="str">
+        <v>23.12</v>
+      </c>
+      <c r="N55" s="87">
         <f>IF(M55="","",('INITIAL INPUT'!$J$25*CRS!H55+'INITIAL INPUT'!$K$25*CRS!M55))</f>
-        <v/>
-      </c>
-      <c r="O55" s="85" t="str">
+        <v>49.585000000000001</v>
+      </c>
+      <c r="O55" s="85">
         <f>IF(N55="","",VLOOKUP(N55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P55" s="83" t="str">
         <f>IF(FINAL!P55="","",CRS!$P$8*FINAL!P55)</f>
@@ -16409,21 +16442,21 @@
         <f>IF(MIDTERM!AB56="","",$K$8*MIDTERM!AB56)</f>
         <v/>
       </c>
-      <c r="L56" s="83" t="str">
+      <c r="L56" s="83">
         <f>IF(MIDTERM!AD56="","",$L$8*MIDTERM!AD56)</f>
-        <v/>
-      </c>
-      <c r="M56" s="86" t="str">
+        <v>16.773333333333337</v>
+      </c>
+      <c r="M56" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N56" s="87" t="str">
+        <v>16.773333333333337</v>
+      </c>
+      <c r="N56" s="87">
         <f>IF(M56="","",('INITIAL INPUT'!$J$25*CRS!H56+'INITIAL INPUT'!$K$25*CRS!M56))</f>
-        <v/>
-      </c>
-      <c r="O56" s="85" t="str">
+        <v>49.249166666666675</v>
+      </c>
+      <c r="O56" s="85">
         <f>IF(N56="","",VLOOKUP(N56,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P56" s="83" t="str">
         <f>IF(FINAL!P56="","",CRS!$P$8*FINAL!P56)</f>
@@ -26170,8 +26203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26438,10 +26471,18 @@
       <c r="B5" s="324"/>
       <c r="C5" s="325"/>
       <c r="D5" s="325"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
+      <c r="E5" s="108">
+        <v>25</v>
+      </c>
+      <c r="F5" s="108">
+        <v>25</v>
+      </c>
+      <c r="G5" s="108">
+        <v>25</v>
+      </c>
+      <c r="H5" s="108">
+        <v>30</v>
+      </c>
       <c r="I5" s="108"/>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
@@ -26450,9 +26491,15 @@
       <c r="N5" s="108"/>
       <c r="O5" s="341"/>
       <c r="P5" s="312"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
+      <c r="Q5" s="108">
+        <v>40</v>
+      </c>
+      <c r="R5" s="108">
+        <v>40</v>
+      </c>
+      <c r="S5" s="108">
+        <v>40</v>
+      </c>
       <c r="T5" s="108"/>
       <c r="U5" s="108"/>
       <c r="V5" s="108"/>
@@ -26462,7 +26509,9 @@
       <c r="Z5" s="108"/>
       <c r="AA5" s="341"/>
       <c r="AB5" s="312"/>
-      <c r="AC5" s="110"/>
+      <c r="AC5" s="110">
+        <v>75</v>
+      </c>
       <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
       <c r="AF5" s="347"/>
@@ -26481,24 +26530,38 @@
       <c r="B6" s="316"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
+      <c r="E6" s="305" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="305" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="305" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="305" t="s">
+        <v>260</v>
+      </c>
       <c r="I6" s="305"/>
       <c r="J6" s="305"/>
       <c r="K6" s="305"/>
       <c r="L6" s="305"/>
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v/>
+        <v>105</v>
       </c>
       <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
+      <c r="Q6" s="390" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="390" t="s">
+        <v>255</v>
+      </c>
+      <c r="S6" s="305" t="s">
+        <v>256</v>
+      </c>
       <c r="T6" s="305"/>
       <c r="U6" s="305"/>
       <c r="V6" s="305"/>
@@ -26506,9 +26569,9 @@
       <c r="X6" s="305"/>
       <c r="Y6" s="305"/>
       <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="AB6" s="312"/>
       <c r="AC6" s="356">
@@ -26537,8 +26600,8 @@
         <v>126</v>
       </c>
       <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="338"/>
       <c r="I7" s="338"/>
       <c r="J7" s="338"/>
@@ -26548,8 +26611,8 @@
       <c r="N7" s="338"/>
       <c r="O7" s="367"/>
       <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
+      <c r="Q7" s="391"/>
+      <c r="R7" s="391"/>
       <c r="S7" s="306"/>
       <c r="T7" s="306"/>
       <c r="U7" s="306"/>
@@ -26577,8 +26640,8 @@
       <c r="C8" s="337"/>
       <c r="D8" s="327"/>
       <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
       <c r="H8" s="339"/>
       <c r="I8" s="339"/>
       <c r="J8" s="339"/>
@@ -26588,8 +26651,8 @@
       <c r="N8" s="339"/>
       <c r="O8" s="368"/>
       <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
+      <c r="Q8" s="392"/>
+      <c r="R8" s="392"/>
       <c r="S8" s="307"/>
       <c r="T8" s="307"/>
       <c r="U8" s="307"/>
@@ -26663,22 +26726,24 @@
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
         <v/>
       </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="67" t="str">
+      <c r="AC9" s="111">
+        <v>29</v>
+      </c>
+      <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE9" s="112" t="str">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="AE9" s="112">
         <f>CRS!M9</f>
-        <v/>
-      </c>
-      <c r="AF9" s="66" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="AF9" s="66">
         <f>CRS!N9</f>
-        <v/>
-      </c>
-      <c r="AG9" s="64" t="str">
+        <v>39.158333333333331</v>
+      </c>
+      <c r="AG9" s="64">
         <f>CRS!O9</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH9" s="61"/>
       <c r="AI9" s="61"/>
@@ -26738,22 +26803,24 @@
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
         <v/>
       </c>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="67" t="str">
+      <c r="AC10" s="111">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE10" s="112" t="str">
+        <v>72</v>
+      </c>
+      <c r="AE10" s="112">
         <f>CRS!M10</f>
-        <v/>
-      </c>
-      <c r="AF10" s="66" t="str">
+        <v>24.48</v>
+      </c>
+      <c r="AF10" s="66">
         <f>CRS!N10</f>
-        <v/>
-      </c>
-      <c r="AG10" s="64" t="str">
+        <v>48.217500000000001</v>
+      </c>
+      <c r="AG10" s="64">
         <f>CRS!O10</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH10" s="61"/>
       <c r="AI10" s="61"/>
@@ -26813,22 +26880,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="67" t="str">
+      <c r="AC11" s="111">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE11" s="112" t="str">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="AE11" s="112">
         <f>CRS!M11</f>
-        <v/>
-      </c>
-      <c r="AF11" s="66" t="str">
+        <v>9.5200000000000014</v>
+      </c>
+      <c r="AF11" s="66">
         <f>CRS!N11</f>
-        <v/>
-      </c>
-      <c r="AG11" s="64" t="str">
+        <v>38.017500000000005</v>
+      </c>
+      <c r="AG11" s="64">
         <f>CRS!O11</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH11" s="55"/>
       <c r="AI11" s="55"/>
@@ -26888,22 +26957,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="67" t="str">
+      <c r="AC12" s="111">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE12" s="112" t="str">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AE12" s="112">
         <f>CRS!M12</f>
-        <v/>
-      </c>
-      <c r="AF12" s="66" t="str">
+        <v>18.133333333333336</v>
+      </c>
+      <c r="AF12" s="66">
         <f>CRS!N12</f>
-        <v/>
-      </c>
-      <c r="AG12" s="64" t="str">
+        <v>37.30916666666667</v>
+      </c>
+      <c r="AG12" s="64">
         <f>CRS!O12</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH12" s="55"/>
       <c r="AI12" s="55"/>
@@ -26963,22 +27034,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="67" t="str">
+      <c r="AC13" s="111">
+        <v>29</v>
+      </c>
+      <c r="AD13" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE13" s="112" t="str">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="AE13" s="112">
         <f>CRS!M13</f>
-        <v/>
-      </c>
-      <c r="AF13" s="66" t="str">
+        <v>13.146666666666667</v>
+      </c>
+      <c r="AF13" s="66">
         <f>CRS!N13</f>
-        <v/>
-      </c>
-      <c r="AG13" s="64" t="str">
+        <v>40.090833333333329</v>
+      </c>
+      <c r="AG13" s="64">
         <f>CRS!O13</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH13" s="55"/>
       <c r="AI13" s="55"/>
@@ -27113,22 +27186,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="67" t="str">
+      <c r="AC15" s="111">
+        <v>46</v>
+      </c>
+      <c r="AD15" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE15" s="112" t="str">
+        <v>61.333333333333329</v>
+      </c>
+      <c r="AE15" s="112">
         <f>CRS!M15</f>
-        <v/>
-      </c>
-      <c r="AF15" s="66" t="str">
+        <v>20.853333333333332</v>
+      </c>
+      <c r="AF15" s="66">
         <f>CRS!N15</f>
-        <v/>
-      </c>
-      <c r="AG15" s="64" t="str">
+        <v>50.644166666666663</v>
+      </c>
+      <c r="AG15" s="64">
         <f>CRS!O15</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="55"/>
@@ -27188,22 +27263,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="67" t="str">
+      <c r="AC16" s="111">
+        <v>26</v>
+      </c>
+      <c r="AD16" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE16" s="112" t="str">
+        <v>34.666666666666671</v>
+      </c>
+      <c r="AE16" s="112">
         <f>CRS!M16</f>
-        <v/>
-      </c>
-      <c r="AF16" s="66" t="str">
+        <v>11.786666666666669</v>
+      </c>
+      <c r="AF16" s="66">
         <f>CRS!N16</f>
-        <v/>
-      </c>
-      <c r="AG16" s="64" t="str">
+        <v>27.478333333333335</v>
+      </c>
+      <c r="AG16" s="64">
         <f>CRS!O16</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH16" s="55"/>
       <c r="AI16" s="55"/>
@@ -27263,22 +27340,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="67" t="str">
+      <c r="AC17" s="111">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE17" s="112" t="str">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AE17" s="112">
         <f>CRS!M17</f>
-        <v/>
-      </c>
-      <c r="AF17" s="66" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="AF17" s="66">
         <f>CRS!N17</f>
-        <v/>
-      </c>
-      <c r="AG17" s="64" t="str">
+        <v>49.025833333333338</v>
+      </c>
+      <c r="AG17" s="64">
         <f>CRS!O17</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH17" s="55"/>
       <c r="AI17" s="55"/>
@@ -27335,22 +27414,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="67" t="str">
+      <c r="AC18" s="111">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE18" s="112" t="str">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="AE18" s="112">
         <f>CRS!M18</f>
-        <v/>
-      </c>
-      <c r="AF18" s="66" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="AF18" s="66">
         <f>CRS!N18</f>
-        <v/>
-      </c>
-      <c r="AG18" s="64" t="str">
+        <v>35.826666666666668</v>
+      </c>
+      <c r="AG18" s="64">
         <f>CRS!O18</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
@@ -27407,22 +27488,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="67" t="str">
+      <c r="AC19" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD19" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE19" s="112" t="str">
+        <v>82.666666666666671</v>
+      </c>
+      <c r="AE19" s="112">
         <f>CRS!M19</f>
-        <v/>
-      </c>
-      <c r="AF19" s="66" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="AF19" s="66">
         <f>CRS!N19</f>
-        <v/>
-      </c>
-      <c r="AG19" s="64" t="str">
+        <v>56.955833333333338</v>
+      </c>
+      <c r="AG19" s="64">
         <f>CRS!O19</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="AH19" s="55"/>
       <c r="AI19" s="55"/>
@@ -27479,22 +27562,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="67" t="str">
+      <c r="AC20" s="111">
+        <v>50</v>
+      </c>
+      <c r="AD20" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE20" s="112" t="str">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AE20" s="112">
         <f>CRS!M20</f>
-        <v/>
-      </c>
-      <c r="AF20" s="66" t="str">
+        <v>22.666666666666664</v>
+      </c>
+      <c r="AF20" s="66">
         <f>CRS!N20</f>
-        <v/>
-      </c>
-      <c r="AG20" s="64" t="str">
+        <v>56.56583333333333</v>
+      </c>
+      <c r="AG20" s="64">
         <f>CRS!O20</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="AH20" s="55"/>
       <c r="AI20" s="55"/>
@@ -27551,22 +27636,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="67" t="str">
+      <c r="AC21" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE21" s="112" t="str">
+        <v>40</v>
+      </c>
+      <c r="AE21" s="112">
         <f>CRS!M21</f>
-        <v/>
-      </c>
-      <c r="AF21" s="66" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="AF21" s="66">
         <f>CRS!N21</f>
-        <v/>
-      </c>
-      <c r="AG21" s="64" t="str">
+        <v>46.787499999999994</v>
+      </c>
+      <c r="AG21" s="64">
         <f>CRS!O21</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH21" s="55"/>
       <c r="AI21" s="55"/>
@@ -27623,22 +27710,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="67" t="str">
+      <c r="AC22" s="111">
+        <v>62</v>
+      </c>
+      <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE22" s="112" t="str">
+        <v>82.666666666666671</v>
+      </c>
+      <c r="AE22" s="112">
         <f>CRS!M22</f>
-        <v/>
-      </c>
-      <c r="AF22" s="66" t="str">
+        <v>28.106666666666669</v>
+      </c>
+      <c r="AF22" s="66">
         <f>CRS!N22</f>
-        <v/>
-      </c>
-      <c r="AG22" s="64" t="str">
+        <v>58.605833333333337</v>
+      </c>
+      <c r="AG22" s="64">
         <f>CRS!O22</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="AH22" s="55"/>
       <c r="AI22" s="55"/>
@@ -27695,22 +27784,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC23" s="111"/>
-      <c r="AD23" s="67" t="str">
+      <c r="AC23" s="111">
+        <v>57</v>
+      </c>
+      <c r="AD23" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE23" s="112" t="str">
+        <v>76</v>
+      </c>
+      <c r="AE23" s="112">
         <f>CRS!M23</f>
-        <v/>
-      </c>
-      <c r="AF23" s="66" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="AF23" s="66">
         <f>CRS!N23</f>
-        <v/>
-      </c>
-      <c r="AG23" s="64" t="str">
+        <v>57.052500000000009</v>
+      </c>
+      <c r="AG23" s="64">
         <f>CRS!O23</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="AH23" s="55"/>
       <c r="AI23" s="55"/>
@@ -27767,22 +27858,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="67" t="str">
+      <c r="AC24" s="111">
+        <v>35</v>
+      </c>
+      <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE24" s="112" t="str">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AE24" s="112">
         <f>CRS!M24</f>
-        <v/>
-      </c>
-      <c r="AF24" s="66" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="AF24" s="66">
         <f>CRS!N24</f>
-        <v/>
-      </c>
-      <c r="AG24" s="64" t="str">
+        <v>43.38333333333334</v>
+      </c>
+      <c r="AG24" s="64">
         <f>CRS!O24</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH24" s="55"/>
       <c r="AI24" s="55"/>
@@ -27839,22 +27932,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="67" t="str">
+      <c r="AC25" s="111">
+        <v>31</v>
+      </c>
+      <c r="AD25" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE25" s="112" t="str">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="AE25" s="112">
         <f>CRS!M25</f>
-        <v/>
-      </c>
-      <c r="AF25" s="66" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="AF25" s="66">
         <f>CRS!N25</f>
-        <v/>
-      </c>
-      <c r="AG25" s="64" t="str">
+        <v>35.456666666666663</v>
+      </c>
+      <c r="AG25" s="64">
         <f>CRS!O25</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH25" s="55"/>
       <c r="AI25" s="55"/>
@@ -27911,22 +28006,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="67" t="str">
+      <c r="AC26" s="111">
+        <v>57</v>
+      </c>
+      <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE26" s="112" t="str">
+        <v>76</v>
+      </c>
+      <c r="AE26" s="112">
         <f>CRS!M26</f>
-        <v/>
-      </c>
-      <c r="AF26" s="66" t="str">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="AF26" s="66">
         <f>CRS!N26</f>
-        <v/>
-      </c>
-      <c r="AG26" s="64" t="str">
+        <v>53.760000000000005</v>
+      </c>
+      <c r="AG26" s="64">
         <f>CRS!O26</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="AH26" s="373"/>
       <c r="AI26" s="371" t="s">
@@ -27985,22 +28082,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="67" t="str">
+      <c r="AC27" s="111">
+        <v>31</v>
+      </c>
+      <c r="AD27" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE27" s="112" t="str">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="AE27" s="112">
         <f>CRS!M27</f>
-        <v/>
-      </c>
-      <c r="AF27" s="66" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="AF27" s="66">
         <f>CRS!N27</f>
-        <v/>
-      </c>
-      <c r="AG27" s="64" t="str">
+        <v>45.089166666666671</v>
+      </c>
+      <c r="AG27" s="64">
         <f>CRS!O27</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH27" s="374"/>
       <c r="AI27" s="372"/>
@@ -28057,22 +28156,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="67" t="str">
+      <c r="AC28" s="111">
+        <v>31</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE28" s="112" t="str">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="AE28" s="112">
         <f>CRS!M28</f>
-        <v/>
-      </c>
-      <c r="AF28" s="66" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="AF28" s="66">
         <f>CRS!N28</f>
-        <v/>
-      </c>
-      <c r="AG28" s="64" t="str">
+        <v>40.284166666666664</v>
+      </c>
+      <c r="AG28" s="64">
         <f>CRS!O28</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH28" s="374"/>
       <c r="AI28" s="372"/>
@@ -28129,22 +28230,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="67" t="str">
+      <c r="AC29" s="111">
+        <v>35</v>
+      </c>
+      <c r="AD29" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE29" s="112" t="str">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AE29" s="112">
         <f>CRS!M29</f>
-        <v/>
-      </c>
-      <c r="AF29" s="66" t="str">
+        <v>15.866666666666667</v>
+      </c>
+      <c r="AF29" s="66">
         <f>CRS!N29</f>
-        <v/>
-      </c>
-      <c r="AG29" s="64" t="str">
+        <v>44.150833333333338</v>
+      </c>
+      <c r="AG29" s="64">
         <f>CRS!O29</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH29" s="374"/>
       <c r="AI29" s="372"/>
@@ -28201,22 +28304,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="67" t="str">
+      <c r="AC30" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE30" s="112" t="str">
+        <v>44</v>
+      </c>
+      <c r="AE30" s="112">
         <f>CRS!M30</f>
-        <v/>
-      </c>
-      <c r="AF30" s="66" t="str">
+        <v>14.96</v>
+      </c>
+      <c r="AF30" s="66">
         <f>CRS!N30</f>
-        <v/>
-      </c>
-      <c r="AG30" s="64" t="str">
+        <v>44.182500000000005</v>
+      </c>
+      <c r="AG30" s="64">
         <f>CRS!O30</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH30" s="374"/>
       <c r="AI30" s="372"/>
@@ -28273,22 +28378,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="67" t="str">
+      <c r="AC31" s="111">
+        <v>44</v>
+      </c>
+      <c r="AD31" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE31" s="112" t="str">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="AE31" s="112">
         <f>CRS!M31</f>
-        <v/>
-      </c>
-      <c r="AF31" s="66" t="str">
+        <v>19.946666666666669</v>
+      </c>
+      <c r="AF31" s="66">
         <f>CRS!N31</f>
-        <v/>
-      </c>
-      <c r="AG31" s="64" t="str">
+        <v>51.783333333333339</v>
+      </c>
+      <c r="AG31" s="64">
         <f>CRS!O31</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="AH31" s="374"/>
       <c r="AI31" s="372"/>
@@ -28345,22 +28452,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="67" t="str">
+      <c r="AC32" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE32" s="112" t="str">
+        <v>64</v>
+      </c>
+      <c r="AE32" s="112">
         <f>CRS!M32</f>
-        <v/>
-      </c>
-      <c r="AF32" s="66" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="AF32" s="66">
         <f>CRS!N32</f>
-        <v/>
-      </c>
-      <c r="AG32" s="64" t="str">
+        <v>54.752500000000005</v>
+      </c>
+      <c r="AG32" s="64">
         <f>CRS!O32</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="AH32" s="374"/>
       <c r="AI32" s="372"/>
@@ -28417,22 +28526,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="67" t="str">
+      <c r="AC33" s="111">
+        <v>53</v>
+      </c>
+      <c r="AD33" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE33" s="112" t="str">
+        <v>70.666666666666671</v>
+      </c>
+      <c r="AE33" s="112">
         <f>CRS!M33</f>
-        <v/>
-      </c>
-      <c r="AF33" s="66" t="str">
+        <v>24.026666666666671</v>
+      </c>
+      <c r="AF33" s="66">
         <f>CRS!N33</f>
-        <v/>
-      </c>
-      <c r="AG33" s="64" t="str">
+        <v>54.575833333333335</v>
+      </c>
+      <c r="AG33" s="64">
         <f>CRS!O33</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="AH33" s="374"/>
       <c r="AI33" s="372"/>
@@ -28492,22 +28603,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="67" t="str">
+      <c r="AC34" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE34" s="112" t="str">
+        <v>40</v>
+      </c>
+      <c r="AE34" s="112">
         <f>CRS!M34</f>
-        <v/>
-      </c>
-      <c r="AF34" s="66" t="str">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="AF34" s="66">
         <f>CRS!N34</f>
-        <v/>
-      </c>
-      <c r="AG34" s="64" t="str">
+        <v>35.230000000000004</v>
+      </c>
+      <c r="AG34" s="64">
         <f>CRS!O34</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH34" s="374"/>
       <c r="AI34" s="372"/>
@@ -28567,22 +28680,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="67" t="str">
+      <c r="AC35" s="111">
+        <v>24</v>
+      </c>
+      <c r="AD35" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE35" s="112" t="str">
+        <v>32</v>
+      </c>
+      <c r="AE35" s="112">
         <f>CRS!M35</f>
-        <v/>
-      </c>
-      <c r="AF35" s="66" t="str">
+        <v>10.88</v>
+      </c>
+      <c r="AF35" s="66">
         <f>CRS!N35</f>
-        <v/>
-      </c>
-      <c r="AG35" s="64" t="str">
+        <v>44.602499999999999</v>
+      </c>
+      <c r="AG35" s="64">
         <f>CRS!O35</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH35" s="374"/>
       <c r="AI35" s="372"/>
@@ -28642,22 +28757,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="67" t="str">
+      <c r="AC36" s="111">
+        <v>61</v>
+      </c>
+      <c r="AD36" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE36" s="112" t="str">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="AE36" s="112">
         <f>CRS!M36</f>
-        <v/>
-      </c>
-      <c r="AF36" s="66" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="AF36" s="66">
         <f>CRS!N36</f>
-        <v/>
-      </c>
-      <c r="AG36" s="64" t="str">
+        <v>58.719166666666666</v>
+      </c>
+      <c r="AG36" s="64">
         <f>CRS!O36</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="AH36" s="374"/>
       <c r="AI36" s="372"/>
@@ -28717,22 +28834,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="67" t="str">
+      <c r="AC37" s="111">
+        <v>32</v>
+      </c>
+      <c r="AD37" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE37" s="112" t="str">
+        <v>42.666666666666671</v>
+      </c>
+      <c r="AE37" s="112">
         <f>CRS!M37</f>
-        <v/>
-      </c>
-      <c r="AF37" s="66" t="str">
+        <v>14.506666666666669</v>
+      </c>
+      <c r="AF37" s="66">
         <f>CRS!N37</f>
-        <v/>
-      </c>
-      <c r="AG37" s="64" t="str">
+        <v>42.218333333333341</v>
+      </c>
+      <c r="AG37" s="64">
         <f>CRS!O37</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH37" s="374"/>
       <c r="AI37" s="372"/>
@@ -28792,22 +28911,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="67" t="str">
+      <c r="AC38" s="111">
+        <v>31</v>
+      </c>
+      <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE38" s="112" t="str">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="AE38" s="112">
         <f>CRS!M38</f>
-        <v/>
-      </c>
-      <c r="AF38" s="66" t="str">
+        <v>14.053333333333335</v>
+      </c>
+      <c r="AF38" s="66">
         <f>CRS!N38</f>
-        <v/>
-      </c>
-      <c r="AG38" s="64" t="str">
+        <v>43.359166666666667</v>
+      </c>
+      <c r="AG38" s="64">
         <f>CRS!O38</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH38" s="374"/>
       <c r="AI38" s="372"/>
@@ -28867,22 +28988,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="67" t="str">
+      <c r="AC39" s="111">
+        <v>49</v>
+      </c>
+      <c r="AD39" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE39" s="112" t="str">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="AE39" s="112">
         <f>CRS!M39</f>
-        <v/>
-      </c>
-      <c r="AF39" s="66" t="str">
+        <v>22.213333333333335</v>
+      </c>
+      <c r="AF39" s="66">
         <f>CRS!N39</f>
-        <v/>
-      </c>
-      <c r="AG39" s="64" t="str">
+        <v>54.299166666666672</v>
+      </c>
+      <c r="AG39" s="64">
         <f>CRS!O39</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="AH39" s="374"/>
       <c r="AI39" s="372"/>
@@ -28942,22 +29065,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="67" t="str">
+      <c r="AC40" s="111">
+        <v>61</v>
+      </c>
+      <c r="AD40" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE40" s="112" t="str">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="AE40" s="112">
         <f>CRS!M40</f>
-        <v/>
-      </c>
-      <c r="AF40" s="66" t="str">
+        <v>27.653333333333332</v>
+      </c>
+      <c r="AF40" s="66">
         <f>CRS!N40</f>
-        <v/>
-      </c>
-      <c r="AG40" s="64" t="str">
+        <v>48.75416666666667</v>
+      </c>
+      <c r="AG40" s="64">
         <f>CRS!O40</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH40" s="374"/>
       <c r="AI40" s="372"/>
@@ -29254,21 +29379,21 @@
       <c r="B46" s="324"/>
       <c r="C46" s="325"/>
       <c r="D46" s="325"/>
-      <c r="E46" s="57" t="str">
+      <c r="E46" s="57">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
-        <v/>
-      </c>
-      <c r="F46" s="57" t="str">
+        <v>25</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>25</v>
+      </c>
+      <c r="G46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H46" s="57" t="str">
+        <v>25</v>
+      </c>
+      <c r="H46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="I46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -29296,17 +29421,17 @@
       </c>
       <c r="O46" s="340"/>
       <c r="P46" s="311"/>
-      <c r="Q46" s="57" t="str">
+      <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
-        <v/>
-      </c>
-      <c r="R46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="R46" s="57">
         <f t="shared" ref="R46:Z46" si="6">IF(R5="","",R5)</f>
-        <v/>
-      </c>
-      <c r="S46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="S46" s="57">
         <f t="shared" si="6"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="T46" s="57" t="str">
         <f t="shared" si="6"/>
@@ -29338,9 +29463,9 @@
       </c>
       <c r="AA46" s="341"/>
       <c r="AB46" s="312"/>
-      <c r="AC46" s="57" t="str">
+      <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
@@ -29362,19 +29487,19 @@
       <c r="D47" s="304"/>
       <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
-        <v/>
+        <v>QUIZ CH.03</v>
       </c>
       <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>QUIZ CH.04</v>
       </c>
       <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>QUIZ CH.05</v>
       </c>
       <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>TEXT TEMPLATE</v>
       </c>
       <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
@@ -29400,22 +29525,22 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="369">
         <f>O6</f>
-        <v/>
+        <v>105</v>
       </c>
       <c r="P47" s="311"/>
       <c r="Q47" s="317" t="str">
-        <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
-        <v/>
+        <f>IF(Q6="","",Q6)</f>
+        <v>PS.TEXTART</v>
       </c>
       <c r="R47" s="317" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(R6="","",R6)</f>
+        <v>AUD.EX01</v>
       </c>
       <c r="S47" s="317" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ref="S47:Z47" si="7">IF(S6="","",S6)</f>
+        <v>AUD.EX2</v>
       </c>
       <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
@@ -29445,9 +29570,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="369">
         <f>AA6</f>
-        <v/>
+        <v>120</v>
       </c>
       <c r="AB47" s="312"/>
       <c r="AC47" s="308">
@@ -29667,22 +29792,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="67" t="str">
+      <c r="AC51" s="111">
+        <v>56</v>
+      </c>
+      <c r="AD51" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE51" s="112" t="str">
+        <v>74.666666666666671</v>
+      </c>
+      <c r="AE51" s="112">
         <f>CRS!M51</f>
-        <v/>
-      </c>
-      <c r="AF51" s="66" t="str">
+        <v>25.38666666666667</v>
+      </c>
+      <c r="AF51" s="66">
         <f>CRS!N51</f>
-        <v/>
-      </c>
-      <c r="AG51" s="64" t="str">
+        <v>53.670833333333334</v>
+      </c>
+      <c r="AG51" s="64">
         <f>CRS!O51</f>
-        <v/>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29737,22 +29864,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="67" t="str">
+      <c r="AC52" s="111">
+        <v>42</v>
+      </c>
+      <c r="AD52" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE52" s="112" t="str">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="AE52" s="112">
         <f>CRS!M52</f>
-        <v/>
-      </c>
-      <c r="AF52" s="66" t="str">
+        <v>19.040000000000003</v>
+      </c>
+      <c r="AF52" s="66">
         <f>CRS!N52</f>
-        <v/>
-      </c>
-      <c r="AG52" s="64" t="str">
+        <v>47.872500000000009</v>
+      </c>
+      <c r="AG52" s="64">
         <f>CRS!O52</f>
-        <v/>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29877,22 +30006,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC54" s="111"/>
-      <c r="AD54" s="67" t="str">
+      <c r="AC54" s="111">
+        <v>48</v>
+      </c>
+      <c r="AD54" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE54" s="112" t="str">
+        <v>64</v>
+      </c>
+      <c r="AE54" s="112">
         <f>CRS!M54</f>
-        <v/>
-      </c>
-      <c r="AF54" s="66" t="str">
+        <v>21.76</v>
+      </c>
+      <c r="AF54" s="66">
         <f>CRS!N54</f>
-        <v/>
-      </c>
-      <c r="AG54" s="64" t="str">
+        <v>54.072500000000005</v>
+      </c>
+      <c r="AG54" s="64">
         <f>CRS!O54</f>
-        <v/>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29947,22 +30078,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="67" t="str">
+      <c r="AC55" s="111">
+        <v>51</v>
+      </c>
+      <c r="AD55" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE55" s="112" t="str">
+        <v>68</v>
+      </c>
+      <c r="AE55" s="112">
         <f>CRS!M55</f>
-        <v/>
-      </c>
-      <c r="AF55" s="66" t="str">
+        <v>23.12</v>
+      </c>
+      <c r="AF55" s="66">
         <f>CRS!N55</f>
-        <v/>
-      </c>
-      <c r="AG55" s="64" t="str">
+        <v>49.585000000000001</v>
+      </c>
+      <c r="AG55" s="64">
         <f>CRS!O55</f>
-        <v/>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -30017,22 +30150,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC56" s="111"/>
-      <c r="AD56" s="67" t="str">
+      <c r="AC56" s="111">
+        <v>37</v>
+      </c>
+      <c r="AD56" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE56" s="112" t="str">
+        <v>49.333333333333336</v>
+      </c>
+      <c r="AE56" s="112">
         <f>CRS!M56</f>
-        <v/>
-      </c>
-      <c r="AF56" s="66" t="str">
+        <v>16.773333333333337</v>
+      </c>
+      <c r="AF56" s="66">
         <f>CRS!N56</f>
-        <v/>
-      </c>
-      <c r="AG56" s="64" t="str">
+        <v>49.249166666666675</v>
+      </c>
+      <c r="AG56" s="64">
         <f>CRS!O56</f>
-        <v/>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -32158,7 +32293,7 @@
     <mergeCell ref="AA47:AA49"/>
     <mergeCell ref="AD46:AD49"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="21">
+  <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
       <formula1>$AC$5</formula1>
     </dataValidation>
@@ -38559,9 +38694,9 @@
         <v>83</v>
       </c>
       <c r="J15" s="145"/>
-      <c r="K15" s="144" t="str">
+      <c r="K15" s="144">
         <f>IF(CRS!O9="","",CRS!O9)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L15" s="146"/>
       <c r="M15" s="144" t="str">
@@ -38618,9 +38753,9 @@
         <v>86</v>
       </c>
       <c r="J16" s="145"/>
-      <c r="K16" s="144" t="str">
+      <c r="K16" s="144">
         <f>IF(CRS!O10="","",CRS!O10)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L16" s="146"/>
       <c r="M16" s="144" t="str">
@@ -38677,9 +38812,9 @@
         <v>83</v>
       </c>
       <c r="J17" s="145"/>
-      <c r="K17" s="144" t="str">
+      <c r="K17" s="144">
         <f>IF(CRS!O11="","",CRS!O11)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L17" s="146"/>
       <c r="M17" s="144" t="str">
@@ -38736,9 +38871,9 @@
         <v>78</v>
       </c>
       <c r="J18" s="145"/>
-      <c r="K18" s="144" t="str">
+      <c r="K18" s="144">
         <f>IF(CRS!O12="","",CRS!O12)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L18" s="146"/>
       <c r="M18" s="144" t="str">
@@ -38795,9 +38930,9 @@
         <v>84</v>
       </c>
       <c r="J19" s="145"/>
-      <c r="K19" s="144" t="str">
+      <c r="K19" s="144">
         <f>IF(CRS!O13="","",CRS!O13)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="144" t="str">
@@ -38913,9 +39048,9 @@
         <v>90</v>
       </c>
       <c r="J21" s="145"/>
-      <c r="K21" s="144" t="str">
+      <c r="K21" s="144">
         <f>IF(CRS!O15="","",CRS!O15)</f>
-        <v/>
+        <v>75</v>
       </c>
       <c r="L21" s="146"/>
       <c r="M21" s="144" t="str">
@@ -38972,9 +39107,9 @@
         <v>74</v>
       </c>
       <c r="J22" s="145"/>
-      <c r="K22" s="144" t="str">
+      <c r="K22" s="144">
         <f>IF(CRS!O16="","",CRS!O16)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L22" s="146"/>
       <c r="M22" s="144" t="str">
@@ -39031,9 +39166,9 @@
         <v>88</v>
       </c>
       <c r="J23" s="145"/>
-      <c r="K23" s="144" t="str">
+      <c r="K23" s="144">
         <f>IF(CRS!O17="","",CRS!O17)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L23" s="146"/>
       <c r="M23" s="144" t="str">
@@ -39090,9 +39225,9 @@
         <v>79</v>
       </c>
       <c r="J24" s="145"/>
-      <c r="K24" s="144" t="str">
+      <c r="K24" s="144">
         <f>IF(CRS!O18="","",CRS!O18)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L24" s="146"/>
       <c r="M24" s="144" t="str">
@@ -39149,9 +39284,9 @@
         <v>93</v>
       </c>
       <c r="J25" s="145"/>
-      <c r="K25" s="144" t="str">
+      <c r="K25" s="144">
         <f>IF(CRS!O19="","",CRS!O19)</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="144" t="str">
@@ -39208,9 +39343,9 @@
         <v>95</v>
       </c>
       <c r="J26" s="145"/>
-      <c r="K26" s="144" t="str">
+      <c r="K26" s="144">
         <f>IF(CRS!O20="","",CRS!O20)</f>
-        <v/>
+        <v>78</v>
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="144" t="str">
@@ -39267,9 +39402,9 @@
         <v>90</v>
       </c>
       <c r="J27" s="145"/>
-      <c r="K27" s="144" t="str">
+      <c r="K27" s="144">
         <f>IF(CRS!O21="","",CRS!O21)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L27" s="146"/>
       <c r="M27" s="144" t="str">
@@ -39326,9 +39461,9 @@
         <v>95</v>
       </c>
       <c r="J28" s="145"/>
-      <c r="K28" s="144" t="str">
+      <c r="K28" s="144">
         <f>IF(CRS!O22="","",CRS!O22)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="L28" s="146"/>
       <c r="M28" s="144" t="str">
@@ -39385,9 +39520,9 @@
         <v>94</v>
       </c>
       <c r="J29" s="145"/>
-      <c r="K29" s="144" t="str">
+      <c r="K29" s="144">
         <f>IF(CRS!O23="","",CRS!O23)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="L29" s="146"/>
       <c r="M29" s="144" t="str">
@@ -39444,9 +39579,9 @@
         <v>85</v>
       </c>
       <c r="J30" s="145"/>
-      <c r="K30" s="144" t="str">
+      <c r="K30" s="144">
         <f>IF(CRS!O24="","",CRS!O24)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L30" s="146"/>
       <c r="M30" s="144" t="str">
@@ -39503,9 +39638,9 @@
         <v>78</v>
       </c>
       <c r="J31" s="145"/>
-      <c r="K31" s="144" t="str">
+      <c r="K31" s="144">
         <f>IF(CRS!O25="","",CRS!O25)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L31" s="146"/>
       <c r="M31" s="144" t="str">
@@ -39562,9 +39697,9 @@
         <v>91</v>
       </c>
       <c r="J32" s="145"/>
-      <c r="K32" s="144" t="str">
+      <c r="K32" s="144">
         <f>IF(CRS!O26="","",CRS!O26)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L32" s="146"/>
       <c r="M32" s="144" t="str">
@@ -39621,9 +39756,9 @@
         <v>88</v>
       </c>
       <c r="J33" s="145"/>
-      <c r="K33" s="144" t="str">
+      <c r="K33" s="144">
         <f>IF(CRS!O27="","",CRS!O27)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L33" s="146"/>
       <c r="M33" s="144" t="str">
@@ -39680,9 +39815,9 @@
         <v>83</v>
       </c>
       <c r="J34" s="145"/>
-      <c r="K34" s="144" t="str">
+      <c r="K34" s="144">
         <f>IF(CRS!O28="","",CRS!O28)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L34" s="146"/>
       <c r="M34" s="144" t="str">
@@ -39739,9 +39874,9 @@
         <v>86</v>
       </c>
       <c r="J35" s="145"/>
-      <c r="K35" s="144" t="str">
+      <c r="K35" s="144">
         <f>IF(CRS!O29="","",CRS!O29)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L35" s="146"/>
       <c r="M35" s="144" t="str">
@@ -39798,9 +39933,9 @@
         <v>87</v>
       </c>
       <c r="J36" s="145"/>
-      <c r="K36" s="144" t="str">
+      <c r="K36" s="144">
         <f>IF(CRS!O30="","",CRS!O30)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L36" s="146"/>
       <c r="M36" s="144" t="str">
@@ -39857,9 +39992,9 @@
         <v>92</v>
       </c>
       <c r="J37" s="145"/>
-      <c r="K37" s="144" t="str">
+      <c r="K37" s="144">
         <f>IF(CRS!O31="","",CRS!O31)</f>
-        <v/>
+        <v>76</v>
       </c>
       <c r="L37" s="146"/>
       <c r="M37" s="144" t="str">
@@ -39916,9 +40051,9 @@
         <v>94</v>
       </c>
       <c r="J38" s="145"/>
-      <c r="K38" s="144" t="str">
+      <c r="K38" s="144">
         <f>IF(CRS!O32="","",CRS!O32)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L38" s="146"/>
       <c r="M38" s="144" t="str">
@@ -39975,9 +40110,9 @@
         <v>93</v>
       </c>
       <c r="J39" s="145"/>
-      <c r="K39" s="144" t="str">
+      <c r="K39" s="144">
         <f>IF(CRS!O33="","",CRS!O33)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L39" s="146"/>
       <c r="M39" s="144" t="str">
@@ -40034,9 +40169,9 @@
         <v>78</v>
       </c>
       <c r="J40" s="145"/>
-      <c r="K40" s="144" t="str">
+      <c r="K40" s="144">
         <f>IF(CRS!O34="","",CRS!O34)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L40" s="146"/>
       <c r="M40" s="144" t="str">
@@ -40093,9 +40228,9 @@
         <v>89</v>
       </c>
       <c r="J41" s="145"/>
-      <c r="K41" s="144" t="str">
+      <c r="K41" s="144">
         <f>IF(CRS!O35="","",CRS!O35)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L41" s="146"/>
       <c r="M41" s="144" t="str">
@@ -40152,9 +40287,9 @@
         <v>95</v>
       </c>
       <c r="J42" s="145"/>
-      <c r="K42" s="144" t="str">
+      <c r="K42" s="144">
         <f>IF(CRS!O36="","",CRS!O36)</f>
-        <v/>
+        <v>79</v>
       </c>
       <c r="L42" s="146"/>
       <c r="M42" s="144" t="str">
@@ -40211,9 +40346,9 @@
         <v>85</v>
       </c>
       <c r="J43" s="145"/>
-      <c r="K43" s="144" t="str">
+      <c r="K43" s="144">
         <f>IF(CRS!O37="","",CRS!O37)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L43" s="146"/>
       <c r="M43" s="144" t="str">
@@ -40270,9 +40405,9 @@
         <v>86</v>
       </c>
       <c r="J44" s="145"/>
-      <c r="K44" s="144" t="str">
+      <c r="K44" s="144">
         <f>IF(CRS!O38="","",CRS!O38)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L44" s="146"/>
       <c r="M44" s="144" t="str">
@@ -40329,9 +40464,9 @@
         <v>93</v>
       </c>
       <c r="J45" s="145"/>
-      <c r="K45" s="144" t="str">
+      <c r="K45" s="144">
         <f>IF(CRS!O39="","",CRS!O39)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L45" s="146"/>
       <c r="M45" s="144" t="str">
@@ -40388,9 +40523,9 @@
         <v>85</v>
       </c>
       <c r="J46" s="145"/>
-      <c r="K46" s="144" t="str">
+      <c r="K46" s="144">
         <f>IF(CRS!O40="","",CRS!O40)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L46" s="146"/>
       <c r="M46" s="144" t="str">
@@ -41019,9 +41154,9 @@
         <v>91</v>
       </c>
       <c r="J77" s="145"/>
-      <c r="K77" s="144" t="str">
+      <c r="K77" s="144">
         <f>IF(CRS!O51="","",CRS!O51)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L77" s="146"/>
       <c r="M77" s="144" t="str">
@@ -41078,9 +41213,9 @@
         <v>88</v>
       </c>
       <c r="J78" s="145"/>
-      <c r="K78" s="144" t="str">
+      <c r="K78" s="144">
         <f>IF(CRS!O52="","",CRS!O52)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L78" s="146"/>
       <c r="M78" s="144" t="str">
@@ -41196,9 +41331,9 @@
         <v>93</v>
       </c>
       <c r="J80" s="145"/>
-      <c r="K80" s="144" t="str">
+      <c r="K80" s="144">
         <f>IF(CRS!O54="","",CRS!O54)</f>
-        <v/>
+        <v>77</v>
       </c>
       <c r="L80" s="146"/>
       <c r="M80" s="144" t="str">
@@ -41255,9 +41390,9 @@
         <v>88</v>
       </c>
       <c r="J81" s="145"/>
-      <c r="K81" s="144" t="str">
+      <c r="K81" s="144">
         <f>IF(CRS!O55="","",CRS!O55)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L81" s="146"/>
       <c r="M81" s="144" t="str">
@@ -41314,9 +41449,9 @@
         <v>91</v>
       </c>
       <c r="J82" s="145"/>
-      <c r="K82" s="144" t="str">
+      <c r="K82" s="144">
         <f>IF(CRS!O56="","",CRS!O56)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L82" s="146"/>
       <c r="M82" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ITE16-CITCS 2D.xlsx
@@ -13028,21 +13028,21 @@
         <f>IF(MIDTERM!AB14="","",$K$8*MIDTERM!AB14)</f>
         <v/>
       </c>
-      <c r="L14" s="83" t="str">
+      <c r="L14" s="83">
         <f>IF(MIDTERM!AD14="","",$L$8*MIDTERM!AD14)</f>
-        <v/>
+        <v>18.133333333333336</v>
       </c>
       <c r="M14" s="86">
         <f t="shared" si="2"/>
-        <v>12.987096774193551</v>
+        <v>31.120430107526886</v>
       </c>
       <c r="N14" s="87">
         <f>IF(M14="","",('INITIAL INPUT'!$J$25*CRS!H14+'INITIAL INPUT'!$K$25*CRS!M14))</f>
-        <v>17.493548387096777</v>
+        <v>26.560215053763443</v>
       </c>
       <c r="O14" s="85">
         <f>IF(N14="","",VLOOKUP(N14,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="83" t="str">
         <f>IF(FINAL!P14="","",CRS!$P$8*FINAL!P14)</f>
@@ -16175,21 +16175,21 @@
         <f>IF(MIDTERM!AB53="","",$K$8*MIDTERM!AB53)</f>
         <v>22.6875</v>
       </c>
-      <c r="L53" s="83" t="str">
+      <c r="L53" s="83">
         <f>IF(MIDTERM!AD53="","",$L$8*MIDTERM!AD53)</f>
-        <v/>
+        <v>24.933333333333334</v>
       </c>
       <c r="M53" s="86">
         <f t="shared" si="7"/>
-        <v>44.616532258064517</v>
+        <v>69.549865591397847</v>
       </c>
       <c r="N53" s="87">
         <f>IF(M53="","",('INITIAL INPUT'!$J$25*CRS!H53+'INITIAL INPUT'!$K$25*CRS!M53))</f>
-        <v>61.780766129032259</v>
+        <v>74.247432795698927</v>
       </c>
       <c r="O53" s="85">
         <f>IF(N53="","",VLOOKUP(N53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P53" s="83" t="str">
         <f>IF(FINAL!P53="","",CRS!$P$8*FINAL!P53)</f>
@@ -26218,8 +26218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27258,22 +27258,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="67" t="str">
+      <c r="AC14" s="111">
+        <v>40</v>
+      </c>
+      <c r="AD14" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="AE14" s="112">
         <f>CRS!M14</f>
-        <v>12.987096774193551</v>
+        <v>31.120430107526886</v>
       </c>
       <c r="AF14" s="66">
         <f>CRS!N14</f>
-        <v>17.493548387096777</v>
+        <v>26.560215053763443</v>
       </c>
       <c r="AG14" s="64">
         <f>CRS!O14</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" s="55"/>
       <c r="AI14" s="55"/>
@@ -30661,22 +30663,24 @@
         <f t="shared" si="11"/>
         <v>68.75</v>
       </c>
-      <c r="AC53" s="111"/>
-      <c r="AD53" s="67" t="str">
+      <c r="AC53" s="111">
+        <v>55</v>
+      </c>
+      <c r="AD53" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="AE53" s="112">
         <f>CRS!M53</f>
-        <v>44.616532258064517</v>
+        <v>69.549865591397847</v>
       </c>
       <c r="AF53" s="66">
         <f>CRS!N53</f>
-        <v>61.780766129032259</v>
+        <v>74.247432795698927</v>
       </c>
       <c r="AG53" s="64">
         <f>CRS!O53</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -39780,7 +39784,7 @@
       <c r="J20" s="145"/>
       <c r="K20" s="144">
         <f>IF(CRS!O14="","",CRS!O14)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" s="146"/>
       <c r="M20" s="144" t="str">
@@ -42063,7 +42067,7 @@
       <c r="J79" s="145"/>
       <c r="K79" s="144">
         <f>IF(CRS!O53="","",CRS!O53)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L79" s="146"/>
       <c r="M79" s="144" t="str">
